--- a/Transavia/Production/Results/Results_daily_F4.xlsx
+++ b/Transavia/Production/Results/Results_daily_F4.xlsx
@@ -29,6 +29,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -58,8 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,6 +375,1326 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.000144334597280249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.0001459435734432191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.0001459435734432191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.0001448766270186752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.0001448766270186752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.0001448766270186752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.0001448766270186752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.0001774502597982064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.000761697068810463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.01380331441760063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.03794859349727631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0.05897229909896851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.06055746600031853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0.04211528226733208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0.03455385938286781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.02046765945851803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.01352876052260399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.0002559956628829241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.0001549635053379461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.0001549635053379461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.0001534036709927022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.0001534036709927022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.0001414339494658634</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.0001459243358112872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0.0001425212976755574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0.0001418399333488196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0.0001520543592050672</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>0.000151918939081952</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>0.000151918939081952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>0.000151918939081952</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>0.000151918939081952</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0.0003477343416307122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0.002145760459825397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>0.03737792000174522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>0.08055579662322998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>0.09908278286457062</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>0.08714910596609116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>0.07212764024734497</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>0.04135438427329063</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>0.0243731252849102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>0.01363788917660713</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B43">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>0.0002588450151961297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B44">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>0.0001504166284576058</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B45">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>0.0001504166284576058</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>0.0001504001411376521</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B47">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>0.0001497271005064249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>0.0001514178002253175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+      <c r="C49">
+        <v>0.0001457267208024859</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0.000149099258123897</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0.0001488711131969467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>0.0001570813765283674</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>0.000152505497680977</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>0.000144334597280249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>0.0001448766270186752</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>0.0001459435734432191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>0.0001785172062227502</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>0.001162833417765796</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>0.008140251971781254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>0.02785965614020824</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>0.03799300640821457</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>0.04633425176143646</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B63">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>0.03804074600338936</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>0.02288575656712055</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <v>0.01871881447732449</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B66">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>0.006544400472193956</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B67">
+        <v>17</v>
+      </c>
+      <c r="C67">
+        <v>0.0001563566183904186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B68">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>0.0001568986481288448</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B69">
+        <v>19</v>
+      </c>
+      <c r="C69">
+        <v>0.0001568986481288448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>0.0001570797758176923</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B71">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>0.0001570797758176923</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B72">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>0.0001565377460792661</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B73">
+        <v>23</v>
+      </c>
+      <c r="C73">
+        <v>0.0001570797758176923</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0.0001448766270186752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0.0001459435734432191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>0.0001421377237420529</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>0.0001421377237420529</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>0.0001421377237420529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>0.0001432053686585277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>0.0001432053686585277</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>0.0001757790014380589</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>0.0004701549187302589</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>0.007920838892459869</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>0.0229667741805315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B85">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>0.03562498465180397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B86">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>0.04140040650963783</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B87">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>0.03780359402298927</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B88">
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <v>0.02473540976643562</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B89">
+        <v>15</v>
+      </c>
+      <c r="C89">
+        <v>0.02371705695986748</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B90">
+        <v>16</v>
+      </c>
+      <c r="C90">
+        <v>0.007177761755883694</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B91">
+        <v>17</v>
+      </c>
+      <c r="C91">
+        <v>0.0001635849330341443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B92">
+        <v>18</v>
+      </c>
+      <c r="C92">
+        <v>0.0001635849330341443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B93">
+        <v>19</v>
+      </c>
+      <c r="C93">
+        <v>0.0001635849330341443</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B94">
+        <v>20</v>
+      </c>
+      <c r="C94">
+        <v>0.0001631267077755183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B95">
+        <v>21</v>
+      </c>
+      <c r="C95">
+        <v>0.0002537014370318502</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B96">
+        <v>22</v>
+      </c>
+      <c r="C96">
+        <v>0.0002458439266774803</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B97">
+        <v>23</v>
+      </c>
+      <c r="C97">
+        <v>0.0002454912173561752</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0.0001514336909167469</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>0.0001493694144301116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>0.0001443375367671251</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>0.000144855715916492</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>0.000144855715916492</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>0.000144855715916492</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>0.0001455235469620675</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>0.0004321653104852885</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>0.001634330837987363</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>0.03269466012716293</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>0.06480341404676437</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>0.08398987352848053</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B110">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>0.08072023838758469</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B111">
+        <v>13</v>
+      </c>
+      <c r="C111">
+        <v>0.07114154845476151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B112">
+        <v>14</v>
+      </c>
+      <c r="C112">
+        <v>0.04570677131414413</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B113">
+        <v>15</v>
+      </c>
+      <c r="C113">
+        <v>0.02502500638365746</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B114">
+        <v>16</v>
+      </c>
+      <c r="C114">
+        <v>0.01392453256994486</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B115">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>0.0002964839804917574</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B116">
+        <v>18</v>
+      </c>
+      <c r="C116">
+        <v>0.0001534289331175387</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B117">
+        <v>19</v>
+      </c>
+      <c r="C117">
+        <v>0.0001534289331175387</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B118">
+        <v>20</v>
+      </c>
+      <c r="C118">
+        <v>0.0001536100608063862</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B119">
+        <v>21</v>
+      </c>
+      <c r="C119">
+        <v>0.0001536100608063862</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B120">
+        <v>22</v>
+      </c>
+      <c r="C120">
+        <v>0.0001536100608063862</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B121">
+        <v>23</v>
+      </c>
+      <c r="C121">
+        <v>0.0001536100608063862</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Transavia/Production/Results/Results_daily_F4.xlsx
+++ b/Transavia/Production/Results/Results_daily_F4.xlsx
@@ -358,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,1322 +377,3709 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>0.000144334597280249</v>
+        <v>0.01346727460622787</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>0.0001459435734432191</v>
+        <v>0.006216668523848057</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.0001459435734432191</v>
+        <v>0.0002903426648117602</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.0001448766270186752</v>
+        <v>0.0001670755591476336</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0.0001448766270186752</v>
+        <v>0.0001670755591476336</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0.0001448766270186752</v>
+        <v>0.0001644939766265452</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>0.0001448766270186752</v>
+        <v>0.0001644939766265452</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.0001774502597982064</v>
+        <v>0.0001644939766265452</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>0.000761697068810463</v>
+        <v>0.0001556356437504292</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01380331441760063</v>
+        <v>0.0003545196959748864</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.03794859349727631</v>
+        <v>0.0003545196959748864</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0.05897229909896851</v>
+        <v>0.000178941321792081</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>0.06055746600031853</v>
+        <v>0.000160135023179464</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>0.04211528226733208</v>
+        <v>0.0001588943268870935</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>0.03455385938286781</v>
+        <v>0.000488906167447567</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>0.02046765945851803</v>
+        <v>0.007983405143022537</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>0.01352876052260399</v>
+        <v>0.0270632803440094</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>0.0002559956628829241</v>
+        <v>0.03532415255904198</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>0.0001549635053379461</v>
+        <v>0.04703718796372414</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>0.0001549635053379461</v>
+        <v>0.05499529093503952</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>0.0001534036709927022</v>
+        <v>0.06169670075178146</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>0.0001534036709927022</v>
+        <v>0.06266695261001587</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>0.0001414339494658634</v>
+        <v>0.05509443581104279</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>0.0001459243358112872</v>
+        <v>0.04233402013778687</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>0.0001425212976755574</v>
+        <v>0.02482550591230392</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>0.0001418399333488196</v>
+        <v>0.00697133457288146</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>0.0001520543592050672</v>
+        <v>0.0002463608107063919</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>0.000151918939081952</v>
+        <v>0.000196952823898755</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>0.000151918939081952</v>
+        <v>0.000196952823898755</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>0.000151918939081952</v>
+        <v>0.0001957256754394621</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>0.000151918939081952</v>
+        <v>0.0001957256754394621</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>0.0003477343416307122</v>
+        <v>0.0001957256754394621</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>0.002145760459825397</v>
+        <v>0.0001578903465997428</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0.03737792000174522</v>
+        <v>0.0001808604574762285</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0.08055579662322998</v>
+        <v>0.0001807897642720491</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>0.09908278286457062</v>
+        <v>0.0003571406123228371</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>0.08714910596609116</v>
+        <v>0.0003571406123228371</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>0.07212764024734497</v>
+        <v>0.0003571406123228371</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>0.04135438427329063</v>
+        <v>0.0005108726909384131</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B41">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>0.0243731252849102</v>
+        <v>0.008998529054224491</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>0.01363788917660713</v>
+        <v>0.03250318765640259</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>0.0002588450151961297</v>
+        <v>0.0632319375872612</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>0.0001504166284576058</v>
+        <v>0.09536276012659073</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B45">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>0.0001504166284576058</v>
+        <v>0.1119881421327591</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>0.0001504001411376521</v>
+        <v>0.1107353195548058</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>0.0001497271005064249</v>
+        <v>0.09778749942779541</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B48">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>0.0001514178002253175</v>
+        <v>0.09959723055362701</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B49">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>0.0001457267208024859</v>
+        <v>0.07072921842336655</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>0.000149099258123897</v>
+        <v>0.03298522904515266</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>0.0001488711131969467</v>
+        <v>0.01160251349210739</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>0.0001570813765283674</v>
+        <v>7.040326454443857E-05</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>0.000152505497680977</v>
+        <v>0.000135118854814209</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>0.000144334597280249</v>
+        <v>0.0001309783401666209</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>0.0001448766270186752</v>
+        <v>0.0001300874864682555</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C56">
-        <v>0.0001459435734432191</v>
+        <v>9.776850492926314E-05</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>0.0001785172062227502</v>
+        <v>0.0001433387515135109</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C58">
-        <v>0.001162833417765796</v>
+        <v>0.0001309995423071086</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0.008140251971781254</v>
+        <v>0.0001464379893150181</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>0.02785965614020824</v>
+        <v>0.0001482997322455049</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>0.03799300640821457</v>
+        <v>0.0001368795055896044</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>0.04633425176143646</v>
+        <v>0.0001544632250443101</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>0.03804074600338936</v>
+        <v>0.0001800568279577419</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B64">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C64">
-        <v>0.02288575656712055</v>
+        <v>0.001068439683876932</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C65">
-        <v>0.01871881447732449</v>
+        <v>0.03535346314311028</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B66">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>0.006544400472193956</v>
+        <v>0.08319737762212753</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B67">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>0.0001563566183904186</v>
+        <v>0.153370276093483</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B68">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>0.0001568986481288448</v>
+        <v>0.175632044672966</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B69">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>0.0001568986481288448</v>
+        <v>0.1774571388959885</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B70">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>0.0001570797758176923</v>
+        <v>0.1601659953594208</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B71">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>0.0001570797758176923</v>
+        <v>0.1493995040655136</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B72">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>0.0001565377460792661</v>
+        <v>0.1228224486112595</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B73">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>0.0001570797758176923</v>
+        <v>0.07845677435398102</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>0.0001448766270186752</v>
+        <v>0.03686133399605751</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>0.0001459435734432191</v>
+        <v>0.01251077931374311</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C76">
-        <v>0.0001421377237420529</v>
+        <v>0.0004688644548878074</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C77">
-        <v>0.0001421377237420529</v>
+        <v>0.0001526323321741074</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C78">
-        <v>0.0001421377237420529</v>
+        <v>0.0001509545400040224</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C79">
-        <v>0.0001432053686585277</v>
+        <v>0.000150050749653019</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C80">
-        <v>0.0001432053686585277</v>
+        <v>0.000150050749653019</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C81">
-        <v>0.0001757790014380589</v>
+        <v>0.0001436026650480926</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C82">
-        <v>0.0004701549187302589</v>
+        <v>0.0001436026650480926</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0.007920838892459869</v>
+        <v>0.000138709947350435</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>0.0229667741805315</v>
+        <v>0.000143339071655646</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>0.03562498465180397</v>
+        <v>0.0001481427752878517</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>0.04140040650963783</v>
+        <v>0.0001706044131424278</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B87">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C87">
-        <v>0.03780359402298927</v>
+        <v>0.0001824891951400787</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B88">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>0.02473540976643562</v>
+        <v>0.0006578036118298769</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B89">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>0.02371705695986748</v>
+        <v>0.01539123710244894</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B90">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C90">
-        <v>0.007177761755883694</v>
+        <v>0.04025611281394958</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B91">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C91">
-        <v>0.0001635849330341443</v>
+        <v>0.06000091880559921</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B92">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C92">
-        <v>0.0001635849330341443</v>
+        <v>0.06792695820331573</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B93">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>0.0001635849330341443</v>
+        <v>0.0818767324090004</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B94">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C94">
-        <v>0.0001631267077755183</v>
+        <v>0.08775736391544342</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B95">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C95">
-        <v>0.0002537014370318502</v>
+        <v>0.08782521635293961</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B96">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C96">
-        <v>0.0002458439266774803</v>
+        <v>0.06865616142749786</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B97">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C97">
-        <v>0.0002454912173561752</v>
+        <v>0.04186978936195374</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C98">
-        <v>0.0001514336909167469</v>
+        <v>0.0291784442961216</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C99">
-        <v>0.0001493694144301116</v>
+        <v>0.0118177542462945</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C100">
-        <v>0.0001443375367671251</v>
+        <v>0.0002836129860952497</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>0.000144855715916492</v>
+        <v>0.0001390697434544563</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C102">
-        <v>0.000144855715916492</v>
+        <v>0.0001392361591570079</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B103">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C103">
-        <v>0.000144855715916492</v>
+        <v>0.000130040047224611</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C104">
-        <v>0.0001455235469620675</v>
+        <v>0.000130040047224611</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B105">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C105">
-        <v>0.0004321653104852885</v>
+        <v>0.000130040047224611</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C106">
-        <v>0.001634330837987363</v>
+        <v>0.0001419248728780076</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0.03269466012716293</v>
+        <v>0.0001633091014809906</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>0.06480341404676437</v>
+        <v>0.0001676472747931257</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B109">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>0.08398987352848053</v>
+        <v>0.0001676472747931257</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B110">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>0.08072023838758469</v>
+        <v>0.0001676472747931257</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B111">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C111">
-        <v>0.07114154845476151</v>
+        <v>0.0001708930067252368</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B112">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C112">
-        <v>0.04570677131414413</v>
+        <v>0.0008448772714473307</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B113">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>0.02502500638365746</v>
+        <v>0.01533379778265953</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B114">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>0.01392453256994486</v>
+        <v>0.04553907737135887</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B115">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C115">
-        <v>0.0002964839804917574</v>
+        <v>0.07245844602584839</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B116">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C116">
-        <v>0.0001534289331175387</v>
+        <v>0.09819907695055008</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B117">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <v>0.0001534289331175387</v>
+        <v>0.09939508140087128</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B118">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C118">
-        <v>0.0001536100608063862</v>
+        <v>0.09048683941364288</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B119">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C119">
-        <v>0.0001536100608063862</v>
+        <v>0.09168697893619537</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B120">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C120">
-        <v>0.0001536100608063862</v>
+        <v>0.08200576901435852</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B121">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>0.06522761285305023</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B122">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>0.03644108027219772</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B123">
+        <v>16</v>
+      </c>
+      <c r="C123">
+        <v>0.01182828098535538</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B124">
+        <v>17</v>
+      </c>
+      <c r="C124">
+        <v>0.0004549908917397261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B125">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>0.000155878093210049</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B126">
+        <v>19</v>
+      </c>
+      <c r="C126">
+        <v>0.0001494300086051226</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B127">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>0.0001468484260840341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B128">
+        <v>21</v>
+      </c>
+      <c r="C128">
+        <v>0.0001494456519139931</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B129">
+        <v>22</v>
+      </c>
+      <c r="C129">
+        <v>0.0001494456519139931</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B130">
         <v>23</v>
       </c>
-      <c r="C121">
-        <v>0.0001536100608063862</v>
+      <c r="C130">
+        <v>0.0001463402004446834</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0.0002007083821808919</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>0.0002018561935983598</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>0.0001702720473986119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>0.0001781296014087275</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>0.0001781296014087275</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>0.0009096051217056811</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <v>0.01640312373638153</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>0.04077931866049767</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B139">
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <v>0.060416579246521</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>0.06985775381326675</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>0.08166410028934479</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B142">
+        <v>11</v>
+      </c>
+      <c r="C142">
+        <v>0.08267364650964737</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B143">
+        <v>12</v>
+      </c>
+      <c r="C143">
+        <v>0.08577963709831238</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B144">
+        <v>13</v>
+      </c>
+      <c r="C144">
+        <v>0.07800957560539246</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B145">
+        <v>14</v>
+      </c>
+      <c r="C145">
+        <v>0.06336114555597305</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B146">
+        <v>15</v>
+      </c>
+      <c r="C146">
+        <v>0.03403178602457047</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B147">
+        <v>16</v>
+      </c>
+      <c r="C147">
+        <v>0.01182076148688793</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B148">
+        <v>17</v>
+      </c>
+      <c r="C148">
+        <v>0.0006718799122609198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B149">
+        <v>18</v>
+      </c>
+      <c r="C149">
+        <v>0.0001716759579721838</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B150">
+        <v>19</v>
+      </c>
+      <c r="C150">
+        <v>0.0001712607481749728</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B151">
+        <v>20</v>
+      </c>
+      <c r="C151">
+        <v>0.0001755346747813746</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B152">
+        <v>21</v>
+      </c>
+      <c r="C152">
+        <v>0.0001564011326991022</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B153">
+        <v>22</v>
+      </c>
+      <c r="C153">
+        <v>0.0001569794112583622</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B154">
+        <v>23</v>
+      </c>
+      <c r="C154">
+        <v>0.0001563720143167302</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0.0001804165804060176</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>0.000172559026395902</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>0.0002097138349199668</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>0.0002097138349199668</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>0.0002097138349199668</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>0.0008542391587980092</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B161">
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>0.01546546909958124</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B162">
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <v>0.03410308435559273</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B163">
+        <v>8</v>
+      </c>
+      <c r="C163">
+        <v>0.05737617984414101</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B164">
+        <v>9</v>
+      </c>
+      <c r="C164">
+        <v>0.07467056065797806</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>0.08557911217212677</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B166">
+        <v>11</v>
+      </c>
+      <c r="C166">
+        <v>0.08522441983222961</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B167">
+        <v>12</v>
+      </c>
+      <c r="C167">
+        <v>0.07947290688753128</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B168">
+        <v>13</v>
+      </c>
+      <c r="C168">
+        <v>0.05568812787532806</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B169">
+        <v>14</v>
+      </c>
+      <c r="C169">
+        <v>0.05726955085992813</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B170">
+        <v>15</v>
+      </c>
+      <c r="C170">
+        <v>0.03830452263355255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B171">
+        <v>16</v>
+      </c>
+      <c r="C171">
+        <v>0.01278772577643394</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B172">
+        <v>17</v>
+      </c>
+      <c r="C172">
+        <v>0.0008241050527431071</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B173">
+        <v>18</v>
+      </c>
+      <c r="C173">
+        <v>0.0001462836080463603</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B174">
+        <v>19</v>
+      </c>
+      <c r="C174">
+        <v>0.0001716759579721838</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B175">
+        <v>20</v>
+      </c>
+      <c r="C175">
+        <v>0.0001690943754510954</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B176">
+        <v>21</v>
+      </c>
+      <c r="C176">
+        <v>0.0001690943754510954</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B177">
+        <v>22</v>
+      </c>
+      <c r="C177">
+        <v>0.0001692193327471614</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B178">
+        <v>23</v>
+      </c>
+      <c r="C178">
+        <v>0.0001692193327471614</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0.0001969548175111413</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>0.0001969548175111413</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181">
+        <v>0.0001969548175111413</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182">
+        <v>0.0001889439445221797</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>0.0001889439445221797</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>0.0007921726210042834</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
+      <c r="C185">
+        <v>0.01517004612833261</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B186">
+        <v>7</v>
+      </c>
+      <c r="C186">
+        <v>0.02968348935246468</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B187">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <v>0.04862070828676224</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B188">
+        <v>9</v>
+      </c>
+      <c r="C188">
+        <v>0.06335140019655228</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B189">
+        <v>10</v>
+      </c>
+      <c r="C189">
+        <v>0.08237438648939133</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B190">
+        <v>11</v>
+      </c>
+      <c r="C190">
+        <v>0.0914224237203598</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B191">
+        <v>12</v>
+      </c>
+      <c r="C191">
+        <v>0.1028250306844711</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B192">
+        <v>13</v>
+      </c>
+      <c r="C192">
+        <v>0.09963276237249374</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B193">
+        <v>14</v>
+      </c>
+      <c r="C193">
+        <v>0.06780093908309937</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B194">
+        <v>15</v>
+      </c>
+      <c r="C194">
+        <v>0.03710003942251205</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B195">
+        <v>16</v>
+      </c>
+      <c r="C195">
+        <v>0.01294724922627211</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B196">
+        <v>17</v>
+      </c>
+      <c r="C196">
+        <v>0.000529694021679461</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B197">
+        <v>18</v>
+      </c>
+      <c r="C197">
+        <v>0.0001385813957313076</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B198">
+        <v>19</v>
+      </c>
+      <c r="C198">
+        <v>0.000136273869429715</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B199">
+        <v>20</v>
+      </c>
+      <c r="C199">
+        <v>0.0001336922869086266</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B200">
+        <v>21</v>
+      </c>
+      <c r="C200">
+        <v>0.0001336922869086266</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B201">
+        <v>22</v>
+      </c>
+      <c r="C201">
+        <v>0.0001336922869086266</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B202">
+        <v>23</v>
+      </c>
+      <c r="C202">
+        <v>0.0001336922869086266</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0.0001471899304306135</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>0.0001510690926807001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205">
+        <v>0.0001517725613666698</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206">
+        <v>0.0001451580319553614</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>0.0001570428721606731</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B208">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>0.0008188552455976605</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B209">
+        <v>6</v>
+      </c>
+      <c r="C209">
+        <v>0.01484839059412479</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B210">
+        <v>7</v>
+      </c>
+      <c r="C210">
+        <v>0.03748383373022079</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B211">
+        <v>8</v>
+      </c>
+      <c r="C211">
+        <v>0.06987385451793671</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B212">
+        <v>9</v>
+      </c>
+      <c r="C212">
+        <v>0.09720008820295334</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B213">
+        <v>10</v>
+      </c>
+      <c r="C213">
+        <v>0.1004133075475693</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B214">
+        <v>11</v>
+      </c>
+      <c r="C214">
+        <v>0.09227889776229858</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B215">
+        <v>12</v>
+      </c>
+      <c r="C215">
+        <v>0.08012396842241287</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B216">
+        <v>13</v>
+      </c>
+      <c r="C216">
+        <v>0.04465353488922119</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B217">
+        <v>14</v>
+      </c>
+      <c r="C217">
+        <v>0.04693740233778954</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B218">
+        <v>15</v>
+      </c>
+      <c r="C218">
+        <v>0.027452128008008</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B219">
+        <v>16</v>
+      </c>
+      <c r="C219">
+        <v>0.0108138732612133</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B220">
+        <v>17</v>
+      </c>
+      <c r="C220">
+        <v>0.000357912213075906</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B221">
+        <v>18</v>
+      </c>
+      <c r="C221">
+        <v>0.0001391258701914921</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B222">
+        <v>19</v>
+      </c>
+      <c r="C222">
+        <v>0.0001391258701914921</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B223">
+        <v>20</v>
+      </c>
+      <c r="C223">
+        <v>0.0001365442876704037</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B224">
+        <v>21</v>
+      </c>
+      <c r="C224">
+        <v>0.0001365442876704037</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B225">
+        <v>22</v>
+      </c>
+      <c r="C225">
+        <v>0.0001365442876704037</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B226">
+        <v>23</v>
+      </c>
+      <c r="C226">
+        <v>0.0001365442876704037</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0.0001519936340628192</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>0.000184267366421409</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229">
+        <v>0.0001861036435002461</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>0.0001861036435002461</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+      <c r="C231">
+        <v>0.0001861036435002461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B232">
+        <v>5</v>
+      </c>
+      <c r="C232">
+        <v>0.001055549830198288</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B233">
+        <v>6</v>
+      </c>
+      <c r="C233">
+        <v>0.01092491392046213</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B234">
+        <v>7</v>
+      </c>
+      <c r="C234">
+        <v>0.03117020428180695</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B235">
+        <v>8</v>
+      </c>
+      <c r="C235">
+        <v>0.04667611420154572</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B236">
+        <v>9</v>
+      </c>
+      <c r="C236">
+        <v>0.06085135415196419</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B237">
+        <v>10</v>
+      </c>
+      <c r="C237">
+        <v>0.06418783962726593</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B238">
+        <v>11</v>
+      </c>
+      <c r="C238">
+        <v>0.08069505542516708</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B239">
+        <v>12</v>
+      </c>
+      <c r="C239">
+        <v>0.09096843749284744</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B240">
+        <v>13</v>
+      </c>
+      <c r="C240">
+        <v>0.09222541004419327</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B241">
+        <v>14</v>
+      </c>
+      <c r="C241">
+        <v>0.06898992508649826</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B242">
+        <v>15</v>
+      </c>
+      <c r="C242">
+        <v>0.04063278809189796</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B243">
+        <v>16</v>
+      </c>
+      <c r="C243">
+        <v>0.01551365107297897</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B244">
+        <v>17</v>
+      </c>
+      <c r="C244">
+        <v>0.0007369047962129116</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B245">
+        <v>18</v>
+      </c>
+      <c r="C245">
+        <v>0.0001316634297836572</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B246">
+        <v>19</v>
+      </c>
+      <c r="C246">
+        <v>0.0001570557651575655</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B247">
+        <v>20</v>
+      </c>
+      <c r="C247">
+        <v>0.0001544741826364771</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B248">
+        <v>21</v>
+      </c>
+      <c r="C248">
+        <v>0.0001521105295978487</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B249">
+        <v>22</v>
+      </c>
+      <c r="C249">
+        <v>0.0001599681127117947</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B250">
+        <v>23</v>
+      </c>
+      <c r="C250">
+        <v>0.0001686791656538844</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>0.0001900108909467235</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>0.0001796556316548958</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>0.0001796556316548958</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>0.0001796556316548958</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="C255">
+        <v>0.0001796556316548958</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B256">
+        <v>5</v>
+      </c>
+      <c r="C256">
+        <v>0.001021978678181767</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B257">
+        <v>6</v>
+      </c>
+      <c r="C257">
+        <v>0.01473786495625973</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B258">
+        <v>7</v>
+      </c>
+      <c r="C258">
+        <v>0.03298915922641754</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B259">
+        <v>8</v>
+      </c>
+      <c r="C259">
+        <v>0.04832635074853897</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B260">
+        <v>9</v>
+      </c>
+      <c r="C260">
+        <v>0.0547684021294117</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B261">
+        <v>10</v>
+      </c>
+      <c r="C261">
+        <v>0.06596297770738602</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B262">
+        <v>11</v>
+      </c>
+      <c r="C262">
+        <v>0.0888773575425148</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B263">
+        <v>12</v>
+      </c>
+      <c r="C263">
+        <v>0.1134429201483727</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B264">
+        <v>13</v>
+      </c>
+      <c r="C264">
+        <v>0.1123935654759407</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B265">
+        <v>14</v>
+      </c>
+      <c r="C265">
+        <v>0.08575809001922607</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B266">
+        <v>15</v>
+      </c>
+      <c r="C266">
+        <v>0.03957096114754677</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B267">
+        <v>16</v>
+      </c>
+      <c r="C267">
+        <v>0.01518685463815928</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B268">
+        <v>17</v>
+      </c>
+      <c r="C268">
+        <v>0.001143521163612604</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B269">
+        <v>18</v>
+      </c>
+      <c r="C269">
+        <v>0.0001299974101129919</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B270">
+        <v>19</v>
+      </c>
+      <c r="C270">
+        <v>0.0001553897454869002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B271">
+        <v>20</v>
+      </c>
+      <c r="C271">
+        <v>0.0001528081629658118</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B272">
+        <v>21</v>
+      </c>
+      <c r="C272">
+        <v>0.0001471987488912418</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B273">
+        <v>22</v>
+      </c>
+      <c r="C273">
+        <v>0.0001599681127117947</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B274">
+        <v>23</v>
+      </c>
+      <c r="C274">
+        <v>0.000157364527694881</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>0.0005995107349008322</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>0.0001880388881545514</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>0.000167448612046428</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>0.0003649380814749748</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B279">
+        <v>4</v>
+      </c>
+      <c r="C279">
+        <v>0.0001885872625280172</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B280">
+        <v>5</v>
+      </c>
+      <c r="C280">
+        <v>0.001336492947302759</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B281">
+        <v>6</v>
+      </c>
+      <c r="C281">
+        <v>0.009685808792710304</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B282">
+        <v>7</v>
+      </c>
+      <c r="C282">
+        <v>0.02708787098526955</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B283">
+        <v>8</v>
+      </c>
+      <c r="C283">
+        <v>0.03495996072888374</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B284">
+        <v>9</v>
+      </c>
+      <c r="C284">
+        <v>0.04346175491809845</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B285">
+        <v>10</v>
+      </c>
+      <c r="C285">
+        <v>0.0486830472946167</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B286">
+        <v>11</v>
+      </c>
+      <c r="C286">
+        <v>0.04788611084222794</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B287">
+        <v>12</v>
+      </c>
+      <c r="C287">
+        <v>0.04803061857819557</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B288">
+        <v>13</v>
+      </c>
+      <c r="C288">
+        <v>0.04399396851658821</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B289">
+        <v>14</v>
+      </c>
+      <c r="C289">
+        <v>0.03498340770602226</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B290">
+        <v>15</v>
+      </c>
+      <c r="C290">
+        <v>0.01693748310208321</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B291">
+        <v>16</v>
+      </c>
+      <c r="C291">
+        <v>0.006980139296501875</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B292">
+        <v>17</v>
+      </c>
+      <c r="C292">
+        <v>0.0008910450851544738</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B293">
+        <v>18</v>
+      </c>
+      <c r="C293">
+        <v>0.0001699723507044837</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B294">
+        <v>19</v>
+      </c>
+      <c r="C294">
+        <v>0.0001603535492904484</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B295">
+        <v>20</v>
+      </c>
+      <c r="C295">
+        <v>0.0001616158842807636</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B296">
+        <v>21</v>
+      </c>
+      <c r="C296">
+        <v>0.0001690865901764482</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B297">
+        <v>22</v>
+      </c>
+      <c r="C297">
+        <v>0.00015777196676936</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B298">
+        <v>23</v>
+      </c>
+      <c r="C298">
+        <v>0.0001406205992680043</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>0.0001799075107555836</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>0.0001772203977452591</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301">
+        <v>0.0002067441964754835</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B302">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>0.0002067441964754835</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B303">
+        <v>4</v>
+      </c>
+      <c r="C303">
+        <v>0.0001751600357238203</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B304">
+        <v>5</v>
+      </c>
+      <c r="C304">
+        <v>0.0009466396295465529</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B305">
+        <v>6</v>
+      </c>
+      <c r="C305">
+        <v>0.007892304100096226</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B306">
+        <v>7</v>
+      </c>
+      <c r="C306">
+        <v>0.0145612945780158</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B307">
+        <v>8</v>
+      </c>
+      <c r="C307">
+        <v>0.02249820716679096</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B308">
+        <v>9</v>
+      </c>
+      <c r="C308">
+        <v>0.02571007609367371</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B309">
+        <v>10</v>
+      </c>
+      <c r="C309">
+        <v>0.03065930679440498</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B310">
+        <v>11</v>
+      </c>
+      <c r="C310">
+        <v>0.03950446471571922</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B311">
+        <v>12</v>
+      </c>
+      <c r="C311">
+        <v>0.03822746127843857</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B312">
+        <v>13</v>
+      </c>
+      <c r="C312">
+        <v>0.03606155142188072</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B313">
+        <v>14</v>
+      </c>
+      <c r="C313">
+        <v>0.0422242283821106</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B314">
+        <v>15</v>
+      </c>
+      <c r="C314">
+        <v>0.02741862274706364</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B315">
+        <v>16</v>
+      </c>
+      <c r="C315">
+        <v>0.01096106600016356</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B316">
+        <v>17</v>
+      </c>
+      <c r="C316">
+        <v>0.0009647139813750982</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B317">
+        <v>18</v>
+      </c>
+      <c r="C317">
+        <v>0.0001446782698621973</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B318">
+        <v>19</v>
+      </c>
+      <c r="C318">
+        <v>0.0001385191135341302</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B319">
+        <v>20</v>
+      </c>
+      <c r="C319">
+        <v>0.0001359375310130417</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B320">
+        <v>21</v>
+      </c>
+      <c r="C320">
+        <v>0.0001359375310130417</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B321">
+        <v>22</v>
+      </c>
+      <c r="C321">
+        <v>0.0001352644903818145</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B322">
+        <v>23</v>
+      </c>
+      <c r="C322">
+        <v>0.0001283107558265328</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>0.0001539864169899374</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>0.0001581521210027859</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325">
+        <v>0.0001581521210027859</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>0.0001583905395818874</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="C327">
+        <v>0.0001581521210027859</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B328">
+        <v>5</v>
+      </c>
+      <c r="C328">
+        <v>0.002923423424363136</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B329">
+        <v>6</v>
+      </c>
+      <c r="C329">
+        <v>0.03024915605783463</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B330">
+        <v>7</v>
+      </c>
+      <c r="C330">
+        <v>0.07746683061122894</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B331">
+        <v>8</v>
+      </c>
+      <c r="C331">
+        <v>0.1050234884023666</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B332">
+        <v>9</v>
+      </c>
+      <c r="C332">
+        <v>0.1381350010633469</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B333">
+        <v>10</v>
+      </c>
+      <c r="C333">
+        <v>0.1434685289859772</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B334">
+        <v>11</v>
+      </c>
+      <c r="C334">
+        <v>0.1406170576810837</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B335">
+        <v>12</v>
+      </c>
+      <c r="C335">
+        <v>0.1151914745569229</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B336">
+        <v>13</v>
+      </c>
+      <c r="C336">
+        <v>0.09897274523973465</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B337">
+        <v>14</v>
+      </c>
+      <c r="C337">
+        <v>0.06988762319087982</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B338">
+        <v>15</v>
+      </c>
+      <c r="C338">
+        <v>0.03287293761968613</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_F4.xlsx
+++ b/Transavia/Production/Results/Results_daily_F4.xlsx
@@ -377,101 +377,101 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.01346727460622787</v>
+        <v>0.1055070981383324</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.006216668523848057</v>
+        <v>0.08581631630659103</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0.0002903426648117602</v>
+        <v>0.06694987416267395</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0.0001670755591476336</v>
+        <v>0.05545452609658241</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>0.0001670755591476336</v>
+        <v>0.04340238869190216</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>0.0001644939766265452</v>
+        <v>0.01987071335315704</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.0001644939766265452</v>
+        <v>0.006302628666162491</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0.0001644939766265452</v>
+        <v>0.0002463608107063919</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0.0001556356437504292</v>
+        <v>0.000156086403876543</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -479,10 +479,10 @@
         <v>45365</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>0.0003545196959748864</v>
+        <v>0.000156086403876543</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -490,10 +490,10 @@
         <v>45365</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>0.0003545196959748864</v>
+        <v>0.0001535048213554546</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -501,10 +501,10 @@
         <v>45365</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>0.000178941321792081</v>
+        <v>0.0001535048213554546</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -512,10 +512,10 @@
         <v>45365</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>0.000160135023179464</v>
+        <v>0.0001535048213554546</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -523,219 +523,219 @@
         <v>45365</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>0.0001588943268870935</v>
+        <v>0.0001653235522098839</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.000488906167447567</v>
+        <v>0.0001781689061317593</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.007983405143022537</v>
+        <v>0.0003545196959748864</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0.0270632803440094</v>
+        <v>0.000160135023179464</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.03532415255904198</v>
+        <v>0.0001572433247929439</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0.04703718796372414</v>
+        <v>0.0001572433247929439</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.05499529093503952</v>
+        <v>0.0004719847056549042</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.06169670075178146</v>
+        <v>0.008242776617407799</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>0.06266695261001587</v>
+        <v>0.02280135825276375</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.05509443581104279</v>
+        <v>0.03322480991482735</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>0.04233402013778687</v>
+        <v>0.04895274341106415</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0.02482550591230392</v>
+        <v>0.05659281089901924</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>0.00697133457288146</v>
+        <v>0.04910948872566223</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>0.0002463608107063919</v>
+        <v>0.06659271568059921</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>0.000196952823898755</v>
+        <v>0.04572529718279839</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>0.000196952823898755</v>
+        <v>0.04864487797021866</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>0.0001957256754394621</v>
+        <v>0.02571837976574898</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>0.0001957256754394621</v>
+        <v>0.01216894015669823</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>0.0001957256754394621</v>
+        <v>0.000225445328396745</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>0.0001578903465997428</v>
+        <v>0.0001579271629452705</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -743,10 +743,10 @@
         <v>45366</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>0.0001808604574762285</v>
+        <v>0.0001500695943832397</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -754,10 +754,10 @@
         <v>45366</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>0.0001807897642720491</v>
+        <v>0.0001474880118621513</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -765,10 +765,10 @@
         <v>45366</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>0.0003571406123228371</v>
+        <v>0.0001463402004446834</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -776,10 +776,10 @@
         <v>45366</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>0.0003571406123228371</v>
+        <v>0.0001463402004446834</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -787,219 +787,219 @@
         <v>45366</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>0.0003571406123228371</v>
+        <v>0.0001425762893632054</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.0005108726909384131</v>
+        <v>0.0001772189134499058</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.008998529054224491</v>
+        <v>0.0001727851486066356</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>0.03250318765640259</v>
+        <v>0.0001441257481928915</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0.0632319375872612</v>
+        <v>0.0001368795055896044</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>0.09536276012659073</v>
+        <v>0.0001544632250443101</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>0.1119881421327591</v>
+        <v>0.001033155131153762</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>0.1107353195548058</v>
+        <v>0.03531639277935028</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>0.09778749942779541</v>
+        <v>0.08512724936008453</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>0.09959723055362701</v>
+        <v>0.1454935371875763</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.07072921842336655</v>
+        <v>0.1687716841697693</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>0.03298522904515266</v>
+        <v>0.1781710833311081</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>0.01160251349210739</v>
+        <v>0.1684213578701019</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>7.040326454443857E-05</v>
+        <v>0.159266784787178</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>0.000135118854814209</v>
+        <v>0.1359808892011642</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>0.0001309783401666209</v>
+        <v>0.09408314526081085</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>0.0001300874864682555</v>
+        <v>0.04433726519346237</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>9.776850492926314E-05</v>
+        <v>0.01511866040527821</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B57">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>0.0001433387515135109</v>
+        <v>0.0001137265207944438</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>0.0001309995423071086</v>
+        <v>0.0001391258701914921</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1007,10 +1007,10 @@
         <v>45367</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>0.0001464379893150181</v>
+        <v>0.0001391258701914921</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1018,10 +1018,10 @@
         <v>45367</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>0.0001482997322455049</v>
+        <v>0.0001349639060208574</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1029,10 +1029,10 @@
         <v>45367</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C61">
-        <v>0.0001368795055896044</v>
+        <v>0.0001366545766359195</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1040,10 +1040,10 @@
         <v>45367</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>0.0001544632250443101</v>
+        <v>0.0001424101355951279</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1051,219 +1051,219 @@
         <v>45367</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>0.0001800568279577419</v>
+        <v>0.0001511116715846583</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.001068439683876932</v>
+        <v>0.0001708930067252368</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>0.03535346314311028</v>
+        <v>0.0002007083821808919</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>0.08319737762212753</v>
+        <v>0.0002018561935983598</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>0.153370276093483</v>
+        <v>0.0002097138349199668</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>0.175632044672966</v>
+        <v>0.0002097138349199668</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>0.1774571388959885</v>
+        <v>0.0003984790237154812</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>0.1601659953594208</v>
+        <v>0.009395414032042027</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>0.1493995040655136</v>
+        <v>0.0292513482272625</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>0.1228224486112595</v>
+        <v>0.04755924269556999</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0.07845677435398102</v>
+        <v>0.06285387277603149</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>0.03686133399605751</v>
+        <v>0.06392266601324081</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>0.01251077931374311</v>
+        <v>0.06747177243232727</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>0.0004688644548878074</v>
+        <v>0.06802003085613251</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B77">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>0.0001526323321741074</v>
+        <v>0.06852538883686066</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B78">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>0.0001509545400040224</v>
+        <v>0.07027474790811539</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>0.000150050749653019</v>
+        <v>0.03575620427727699</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>0.000150050749653019</v>
+        <v>0.01468741241842508</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B81">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>0.0001436026650480926</v>
+        <v>0.0005209186929278076</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B82">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>0.0001436026650480926</v>
+        <v>0.0001301176234846935</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1271,10 +1271,10 @@
         <v>45368</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C83">
-        <v>0.000138709947350435</v>
+        <v>0.0001379407622152939</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1282,10 +1282,10 @@
         <v>45368</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>0.000143339071655646</v>
+        <v>0.0001299400464631617</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1293,10 +1293,10 @@
         <v>45368</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>0.0001481427752878517</v>
+        <v>0.0001299400464631617</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1304,10 +1304,10 @@
         <v>45368</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C86">
-        <v>0.0001706044131424278</v>
+        <v>0.0001325372722931206</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1315,219 +1315,219 @@
         <v>45368</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C87">
-        <v>0.0001824891951400787</v>
+        <v>0.0001290697982767597</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0.0006578036118298769</v>
+        <v>0.0001726362679619342</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>0.01539123710244894</v>
+        <v>0.0001410520926583558</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>0.04025611281394958</v>
+        <v>0.0001410093245794997</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>0.06000091880559921</v>
+        <v>0.0001410520926583558</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>0.06792695820331573</v>
+        <v>0.0001410520926583558</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>0.0818767324090004</v>
+        <v>0.00105262128636241</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>0.08775736391544342</v>
+        <v>0.02854729443788528</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B95">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>0.08782521635293961</v>
+        <v>0.06870026141405106</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B96">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>0.06865616142749786</v>
+        <v>0.1321519166231155</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B97">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>0.04186978936195374</v>
+        <v>0.1452816426753998</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B98">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>0.0291784442961216</v>
+        <v>0.1410516500473022</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>0.0118177542462945</v>
+        <v>0.1382369697093964</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B100">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>0.0002836129860952497</v>
+        <v>0.1054776161909103</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B101">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>0.0001390697434544563</v>
+        <v>0.09270301461219788</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B102">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>0.0001392361591570079</v>
+        <v>0.06291569024324417</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>0.000130040047224611</v>
+        <v>0.03521681949496269</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B104">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>0.000130040047224611</v>
+        <v>0.01148181967437267</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B105">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>0.000130040047224611</v>
+        <v>0.0003777600359171629</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B106">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>0.0001419248728780076</v>
+        <v>0.0001509545400040224</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1535,10 +1535,10 @@
         <v>45369</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>0.0001633091014809906</v>
+        <v>0.0001456842437619343</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1546,10 +1546,10 @@
         <v>45369</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>0.0001676472747931257</v>
+        <v>0.0001349639060208574</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1557,10 +1557,10 @@
         <v>45369</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C109">
-        <v>0.0001676472747931257</v>
+        <v>0.0001300962030654773</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1568,10 +1568,10 @@
         <v>45369</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C110">
-        <v>0.0001676472747931257</v>
+        <v>0.0001300962030654773</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1579,219 +1579,219 @@
         <v>45369</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C111">
-        <v>0.0001708930067252368</v>
+        <v>0.0001300962030654773</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0.0008448772714473307</v>
+        <v>0.0001446210080757737</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>0.01533379778265953</v>
+        <v>0.0001413071731803939</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>0.04553907737135887</v>
+        <v>0.0001676472747931257</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>0.07245844602584839</v>
+        <v>0.0001708930067252368</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>0.09819907695055008</v>
+        <v>0.0001804165804060176</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>0.09939508140087128</v>
+        <v>0.0008855646592564881</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B118">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>0.09048683941364288</v>
+        <v>0.01564473286271095</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B119">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>0.09168697893619537</v>
+        <v>0.03137266263365746</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B120">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>0.08200576901435852</v>
+        <v>0.0427698940038681</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B121">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>0.06522761285305023</v>
+        <v>0.05366400629281998</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B122">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>0.03644108027219772</v>
+        <v>0.05671080574393272</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>0.01182828098535538</v>
+        <v>0.05506440624594688</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B124">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>0.0004549908917397261</v>
+        <v>0.05574459955096245</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B125">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>0.000155878093210049</v>
+        <v>0.05059954524040222</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B126">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>0.0001494300086051226</v>
+        <v>0.04220529273152351</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B127">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>0.0001468484260840341</v>
+        <v>0.03010089881718159</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B128">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>0.0001494456519139931</v>
+        <v>0.01430997531861067</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B129">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>0.0001494456519139931</v>
+        <v>0.0004705492756329477</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B130">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>0.0001463402004446834</v>
+        <v>0.0001674887316767126</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1799,10 +1799,10 @@
         <v>45370</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>0.0002007083821808919</v>
+        <v>0.0001668016484472901</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1810,10 +1810,10 @@
         <v>45370</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C132">
-        <v>0.0002018561935983598</v>
+        <v>0.00016806396888569</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1821,10 +1821,10 @@
         <v>45370</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C133">
-        <v>0.0001702720473986119</v>
+        <v>0.0001690865901764482</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1832,10 +1832,10 @@
         <v>45370</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C134">
-        <v>0.0001781296014087275</v>
+        <v>0.0001569794112583622</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1843,219 +1843,219 @@
         <v>45370</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C135">
-        <v>0.0001781296014087275</v>
+        <v>0.0001570113672642037</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B136">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>0.0009096051217056811</v>
+        <v>0.0001778193545760587</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B137">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>0.01640312373638153</v>
+        <v>0.0001778193545760587</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B138">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>0.04077931866049767</v>
+        <v>0.0001778193545760587</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B139">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>0.060416579246521</v>
+        <v>0.0001699618005659431</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>0.06985775381326675</v>
+        <v>0.0001682957808952779</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>0.08166410028934479</v>
+        <v>0.0008760408381931484</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B142">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>0.08267364650964737</v>
+        <v>0.01900544762611389</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B143">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C143">
-        <v>0.08577963709831238</v>
+        <v>0.04655738174915314</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B144">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>0.07800957560539246</v>
+        <v>0.07229508459568024</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B145">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>0.06336114555597305</v>
+        <v>0.1016320064663887</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B146">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>0.03403178602457047</v>
+        <v>0.1051282063126564</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B147">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C147">
-        <v>0.01182076148688793</v>
+        <v>0.100866511464119</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B148">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>0.0006718799122609198</v>
+        <v>0.09299790114164352</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B149">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C149">
-        <v>0.0001716759579721838</v>
+        <v>0.08322489261627197</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B150">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>0.0001712607481749728</v>
+        <v>0.06639766693115234</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B151">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>0.0001755346747813746</v>
+        <v>0.0345115065574646</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B152">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>0.0001564011326991022</v>
+        <v>0.01114852260798216</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B153">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>0.0001569794112583622</v>
+        <v>0.0002665374777279794</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B154">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C154">
-        <v>0.0001563720143167302</v>
+        <v>0.0001520272344350815</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2063,10 +2063,10 @@
         <v>45371</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C155">
-        <v>0.0001804165804060176</v>
+        <v>0.0001536932541057467</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2074,10 +2074,10 @@
         <v>45371</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C156">
-        <v>0.000172559026395902</v>
+        <v>0.0001589692401466891</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2085,10 +2085,10 @@
         <v>45371</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>0.0002097138349199668</v>
+        <v>0.0001589692401466891</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2096,10 +2096,10 @@
         <v>45371</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C158">
-        <v>0.0002097138349199668</v>
+        <v>0.0001553455804241821</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2107,219 +2107,219 @@
         <v>45371</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C159">
-        <v>0.0002097138349199668</v>
+        <v>0.0001553455804241821</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>0.0008542391587980092</v>
+        <v>0.0002018561935983598</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>0.01546546909958124</v>
+        <v>0.000169124235981144</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>0.03410308435559273</v>
+        <v>0.000169124235981144</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B163">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>0.05737617984414101</v>
+        <v>0.000169124235981144</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B164">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>0.07467056065797806</v>
+        <v>0.0001653602957958356</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>0.08557911217212677</v>
+        <v>0.0009986337972804904</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>0.08522441983222961</v>
+        <v>0.0203810203820467</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B167">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>0.07947290688753128</v>
+        <v>0.0510719008743763</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B168">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C168">
-        <v>0.05568812787532806</v>
+        <v>0.08922632038593292</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B169">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>0.05726955085992813</v>
+        <v>0.1097363457083702</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B170">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C170">
-        <v>0.03830452263355255</v>
+        <v>0.1333245635032654</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B171">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C171">
-        <v>0.01278772577643394</v>
+        <v>0.1580207794904709</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B172">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C172">
-        <v>0.0008241050527431071</v>
+        <v>0.1485335230827332</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B173">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C173">
-        <v>0.0001462836080463603</v>
+        <v>0.1339270174503326</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B174">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C174">
-        <v>0.0001716759579721838</v>
+        <v>0.1101977825164795</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B175">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C175">
-        <v>0.0001690943754510954</v>
+        <v>0.04687289893627167</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B176">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C176">
-        <v>0.0001690943754510954</v>
+        <v>0.01281264796853065</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B177">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C177">
-        <v>0.0001692193327471614</v>
+        <v>0.0003817668475676328</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B178">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C178">
-        <v>0.0001692193327471614</v>
+        <v>0.0001451959105907008</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2327,10 +2327,10 @@
         <v>45372</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C179">
-        <v>0.0001969548175111413</v>
+        <v>0.0001428322430001572</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2338,10 +2338,10 @@
         <v>45372</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C180">
-        <v>0.0001969548175111413</v>
+        <v>0.0001402506604790688</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2349,10 +2349,10 @@
         <v>45372</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C181">
-        <v>0.0001969548175111413</v>
+        <v>0.0001431026612408459</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2360,10 +2360,10 @@
         <v>45372</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C182">
-        <v>0.0001889439445221797</v>
+        <v>0.0001431026612408459</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2371,219 +2371,219 @@
         <v>45372</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C183">
-        <v>0.0001889439445221797</v>
+        <v>0.000130040047224611</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>0.0007921726210042834</v>
+        <v>0.0001505947730038315</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B185">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C185">
-        <v>0.01517004612833261</v>
+        <v>0.0001659063127590343</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B186">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C186">
-        <v>0.02968348935246468</v>
+        <v>0.0001659063127590343</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B187">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C187">
-        <v>0.04862070828676224</v>
+        <v>0.0001676472747931257</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B188">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C188">
-        <v>0.06335140019655228</v>
+        <v>0.0001676472747931257</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B189">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C189">
-        <v>0.08237438648939133</v>
+        <v>0.0008448772714473307</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B190">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C190">
-        <v>0.0914224237203598</v>
+        <v>0.01581644825637341</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B191">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C191">
-        <v>0.1028250306844711</v>
+        <v>0.03872682154178619</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B192">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C192">
-        <v>0.09963276237249374</v>
+        <v>0.06994310021400452</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B193">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C193">
-        <v>0.06780093908309937</v>
+        <v>0.09444212913513184</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C194">
-        <v>0.03710003942251205</v>
+        <v>0.1131647154688835</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B195">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C195">
-        <v>0.01294724922627211</v>
+        <v>0.1499460637569427</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B196">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C196">
-        <v>0.000529694021679461</v>
+        <v>0.1319418549537659</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B197">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C197">
-        <v>0.0001385813957313076</v>
+        <v>0.1060674488544464</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B198">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C198">
-        <v>0.000136273869429715</v>
+        <v>0.08322867006063461</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B199">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C199">
-        <v>0.0001336922869086266</v>
+        <v>0.0421440489590168</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B200">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C200">
-        <v>0.0001336922869086266</v>
+        <v>0.01495280861854553</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B201">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C201">
-        <v>0.0001336922869086266</v>
+        <v>0.0004622770356945693</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B202">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C202">
-        <v>0.0001336922869086266</v>
+        <v>0.0001362177281407639</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2591,10 +2591,10 @@
         <v>45373</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C203">
-        <v>0.0001471899304306135</v>
+        <v>0.0001509545400040224</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2602,10 +2602,10 @@
         <v>45373</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C204">
-        <v>0.0001510690926807001</v>
+        <v>0.0001483098167227581</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2613,10 +2613,10 @@
         <v>45373</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C205">
-        <v>0.0001517725613666698</v>
+        <v>0.0001436026650480926</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2624,10 +2624,10 @@
         <v>45373</v>
       </c>
       <c r="B206">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C206">
-        <v>0.0001451580319553614</v>
+        <v>0.0001424101355951279</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2635,219 +2635,219 @@
         <v>45373</v>
       </c>
       <c r="B207">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C207">
-        <v>0.0001570428721606731</v>
+        <v>0.0001494456519139931</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B208">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C208">
-        <v>0.0008188552455976605</v>
+        <v>0.0001804165804060176</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B209">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C209">
-        <v>0.01484839059412479</v>
+        <v>0.0001708930067252368</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B210">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C210">
-        <v>0.03748383373022079</v>
+        <v>0.0001659063127590343</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B211">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C211">
-        <v>0.06987385451793671</v>
+        <v>0.0001706044131424278</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B212">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C212">
-        <v>0.09720008820295334</v>
+        <v>0.0001706044131424278</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B213">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C213">
-        <v>0.1004133075475693</v>
+        <v>0.0009060725569725037</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B214">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C214">
-        <v>0.09227889776229858</v>
+        <v>0.02164397202432156</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B215">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C215">
-        <v>0.08012396842241287</v>
+        <v>0.06489091366529465</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B216">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C216">
-        <v>0.04465353488922119</v>
+        <v>0.0955011397600174</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B217">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C217">
-        <v>0.04693740233778954</v>
+        <v>0.1172895878553391</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B218">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C218">
-        <v>0.027452128008008</v>
+        <v>0.145258903503418</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B219">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C219">
-        <v>0.0108138732612133</v>
+        <v>0.1563145965337753</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B220">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C220">
-        <v>0.000357912213075906</v>
+        <v>0.1484615653753281</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B221">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C221">
-        <v>0.0001391258701914921</v>
+        <v>0.1452903151512146</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B222">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C222">
-        <v>0.0001391258701914921</v>
+        <v>0.1267623901367188</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B223">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C223">
-        <v>0.0001365442876704037</v>
+        <v>0.06618058681488037</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B224">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C224">
-        <v>0.0001365442876704037</v>
+        <v>0.02375841327011585</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B225">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C225">
-        <v>0.0001365442876704037</v>
+        <v>0.00182947376742959</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B226">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C226">
-        <v>0.0001365442876704037</v>
+        <v>0.0001360225433018059</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2855,10 +2855,10 @@
         <v>45374</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C227">
-        <v>0.0001519936340628192</v>
+        <v>0.0001360225433018059</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2866,10 +2866,10 @@
         <v>45374</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C228">
-        <v>0.000184267366421409</v>
+        <v>0.0001362929615424946</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2877,10 +2877,10 @@
         <v>45374</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C229">
-        <v>0.0001861036435002461</v>
+        <v>0.0001284697646042332</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2888,10 +2888,10 @@
         <v>45374</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C230">
-        <v>0.0001861036435002461</v>
+        <v>0.0001284697646042332</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2899,219 +2899,219 @@
         <v>45374</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C231">
-        <v>0.0001861036435002461</v>
+        <v>0.000133135516080074</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C232">
-        <v>0.001055549830198288</v>
+        <v>0.0001665710296947509</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B233">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C233">
-        <v>0.01092491392046213</v>
+        <v>0.0001665710296947509</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B234">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C234">
-        <v>0.03117020428180695</v>
+        <v>0.0001994460762944072</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C235">
-        <v>0.04667611420154572</v>
+        <v>0.0001994460762944072</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B236">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C236">
-        <v>0.06085135415196419</v>
+        <v>0.0001994460762944072</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B237">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C237">
-        <v>0.06418783962726593</v>
+        <v>0.003804637584835291</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B238">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C238">
-        <v>0.08069505542516708</v>
+        <v>0.04492777585983276</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B239">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C239">
-        <v>0.09096843749284744</v>
+        <v>0.1130218058824539</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B240">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C240">
-        <v>0.09222541004419327</v>
+        <v>0.163934662938118</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B241">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C241">
-        <v>0.06898992508649826</v>
+        <v>0.1845326125621796</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B242">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C242">
-        <v>0.04063278809189796</v>
+        <v>0.1742938309907913</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B243">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C243">
-        <v>0.01551365107297897</v>
+        <v>0.1651074886322021</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B244">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C244">
-        <v>0.0007369047962129116</v>
+        <v>0.1352351903915405</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B245">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C245">
-        <v>0.0001316634297836572</v>
+        <v>0.1077129766345024</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B246">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C246">
-        <v>0.0001570557651575655</v>
+        <v>0.05627737194299698</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B247">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C247">
-        <v>0.0001544741826364771</v>
+        <v>0.02893632464110851</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B248">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C248">
-        <v>0.0001521105295978487</v>
+        <v>0.01356645114719868</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B249">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C249">
-        <v>0.0001599681127117947</v>
+        <v>0.0004880596825387329</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B250">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C250">
-        <v>0.0001686791656538844</v>
+        <v>0.0001589535968378186</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3119,10 +3119,10 @@
         <v>45375</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C251">
-        <v>0.0001900108909467235</v>
+        <v>0.0001520272344350815</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3130,10 +3130,10 @@
         <v>45375</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C252">
-        <v>0.0001796556316548958</v>
+        <v>0.0001463402004446834</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3141,10 +3141,10 @@
         <v>45375</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C253">
-        <v>0.0001796556316548958</v>
+        <v>0.0001434058649465442</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3152,10 +3152,10 @@
         <v>45375</v>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C254">
-        <v>0.0001796556316548958</v>
+        <v>0.0001366788492305204</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3163,219 +3163,219 @@
         <v>45375</v>
       </c>
       <c r="B255">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C255">
-        <v>0.0001796556316548958</v>
+        <v>0.0001318278955295682</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C256">
-        <v>0.001021978678181767</v>
+        <v>0.0001523700775578618</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B257">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C257">
-        <v>0.01473786495625973</v>
+        <v>0.0001800568279577419</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B258">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C258">
-        <v>0.03298915922641754</v>
+        <v>0.0001800568279577419</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C259">
-        <v>0.04832635074853897</v>
+        <v>0.0001840009208535776</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B260">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C260">
-        <v>0.0547684021294117</v>
+        <v>0.0001840009208535776</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B261">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C261">
-        <v>0.06596297770738602</v>
+        <v>0.004103925079107285</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B262">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C262">
-        <v>0.0888773575425148</v>
+        <v>0.0478639043867588</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B263">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C263">
-        <v>0.1134429201483727</v>
+        <v>0.1136178746819496</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B264">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C264">
-        <v>0.1123935654759407</v>
+        <v>0.1699201464653015</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B265">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C265">
-        <v>0.08575809001922607</v>
+        <v>0.2004664242267609</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B266">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C266">
-        <v>0.03957096114754677</v>
+        <v>0.2067058533430099</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B267">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C267">
-        <v>0.01518685463815928</v>
+        <v>0.2028519064188004</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B268">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C268">
-        <v>0.001143521163612604</v>
+        <v>0.1684060245752335</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C269">
-        <v>0.0001299974101129919</v>
+        <v>0.1618920862674713</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B270">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C270">
-        <v>0.0001553897454869002</v>
+        <v>0.1148446798324585</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B271">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C271">
-        <v>0.0001528081629658118</v>
+        <v>0.05046345293521881</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B272">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C272">
-        <v>0.0001471987488912418</v>
+        <v>0.02374576963484287</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B273">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C273">
-        <v>0.0001599681127117947</v>
+        <v>0.001656428212299943</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B274">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C274">
-        <v>0.000157364527694881</v>
+        <v>0.0001382685150019825</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3383,10 +3383,10 @@
         <v>45376</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C275">
-        <v>0.0005995107349008322</v>
+        <v>0.0001390980905853212</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3394,10 +3394,10 @@
         <v>45376</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C276">
-        <v>0.0001880388881545514</v>
+        <v>0.0001365165080642328</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3405,10 +3405,10 @@
         <v>45376</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C277">
-        <v>0.000167448612046428</v>
+        <v>0.0001365165080642328</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3416,10 +3416,10 @@
         <v>45376</v>
       </c>
       <c r="B278">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C278">
-        <v>0.0003649380814749748</v>
+        <v>0.0001263703452423215</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3427,219 +3427,219 @@
         <v>45376</v>
       </c>
       <c r="B279">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C279">
-        <v>0.0001885872625280172</v>
+        <v>0.0001439540938008577</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B280">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C280">
-        <v>0.001336492947302759</v>
+        <v>0.0001840009208535776</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B281">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C281">
-        <v>0.009685808792710304</v>
+        <v>0.0001841446646722034</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C282">
-        <v>0.02708787098526955</v>
+        <v>0.0001841446646722034</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C283">
-        <v>0.03495996072888374</v>
+        <v>0.0001841446646722034</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B284">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C284">
-        <v>0.04346175491809845</v>
+        <v>0.0001841446646722034</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C285">
-        <v>0.0486830472946167</v>
+        <v>0.004010612610727549</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B286">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C286">
-        <v>0.04788611084222794</v>
+        <v>0.04220373556017876</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B287">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C287">
-        <v>0.04803061857819557</v>
+        <v>0.1027091890573502</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B288">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C288">
-        <v>0.04399396851658821</v>
+        <v>0.1606793403625488</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B289">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C289">
-        <v>0.03498340770602226</v>
+        <v>0.1888607889413834</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B290">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C290">
-        <v>0.01693748310208321</v>
+        <v>0.1942043155431747</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C291">
-        <v>0.006980139296501875</v>
+        <v>0.1809127926826477</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B292">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C292">
-        <v>0.0008910450851544738</v>
+        <v>0.1697141975164413</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B293">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C293">
-        <v>0.0001699723507044837</v>
+        <v>0.1503826826810837</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B294">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C294">
-        <v>0.0001603535492904484</v>
+        <v>0.1125641539692879</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B295">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C295">
-        <v>0.0001616158842807636</v>
+        <v>0.05034470185637474</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B296">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C296">
-        <v>0.0001690865901764482</v>
+        <v>0.02317887544631958</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B297">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C297">
-        <v>0.00015777196676936</v>
+        <v>0.001834268681704998</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B298">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C298">
-        <v>0.0001406205992680043</v>
+        <v>0.0001378102460876107</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3647,10 +3647,10 @@
         <v>45377</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C299">
-        <v>0.0001799075107555836</v>
+        <v>0.0001378102460876107</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3658,10 +3658,10 @@
         <v>45377</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C300">
-        <v>0.0001772203977452591</v>
+        <v>0.0001378258893964812</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3669,10 +3669,10 @@
         <v>45377</v>
       </c>
       <c r="B301">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C301">
-        <v>0.0002067441964754835</v>
+        <v>0.0001378258893964812</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3680,10 +3680,10 @@
         <v>45377</v>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C302">
-        <v>0.0002067441964754835</v>
+        <v>0.0001378258893964812</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3691,219 +3691,219 @@
         <v>45377</v>
       </c>
       <c r="B303">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C303">
-        <v>0.0001751600357238203</v>
+        <v>0.0001377800799673423</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B304">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C304">
-        <v>0.0009466396295465529</v>
+        <v>0.0001994460762944072</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B305">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C305">
-        <v>0.007892304100096226</v>
+        <v>0.0001994460762944072</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B306">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C306">
-        <v>0.0145612945780158</v>
+        <v>0.000167861842783168</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C307">
-        <v>0.02249820716679096</v>
+        <v>0.000167861842783168</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C308">
-        <v>0.02571007609367371</v>
+        <v>0.000167861842783168</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B309">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C309">
-        <v>0.03065930679440498</v>
+        <v>0.004065955523401499</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C310">
-        <v>0.03950446471571922</v>
+        <v>0.03284097835421562</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B311">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C311">
-        <v>0.03822746127843857</v>
+        <v>0.08624957501888275</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C312">
-        <v>0.03606155142188072</v>
+        <v>0.1355526149272919</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C313">
-        <v>0.0422242283821106</v>
+        <v>0.1682960987091064</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B314">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C314">
-        <v>0.02741862274706364</v>
+        <v>0.1937390118837357</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B315">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C315">
-        <v>0.01096106600016356</v>
+        <v>0.2038894593715668</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B316">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C316">
-        <v>0.0009647139813750982</v>
+        <v>0.1726134419441223</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B317">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C317">
-        <v>0.0001446782698621973</v>
+        <v>0.1519860625267029</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B318">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C318">
-        <v>0.0001385191135341302</v>
+        <v>0.1231042519211769</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B319">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C319">
-        <v>0.0001359375310130417</v>
+        <v>0.05913281813263893</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B320">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C320">
-        <v>0.0001359375310130417</v>
+        <v>0.02247800305485725</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B321">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C321">
-        <v>0.0001352644903818145</v>
+        <v>0.001566768740303814</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B322">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C322">
-        <v>0.0001283107558265328</v>
+        <v>0.0001403447386110201</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3911,10 +3911,10 @@
         <v>45378</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C323">
-        <v>0.0001539864169899374</v>
+        <v>0.0001326777855865657</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3922,10 +3922,10 @@
         <v>45378</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C324">
-        <v>0.0001581521210027859</v>
+        <v>0.0001326934288954362</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3933,10 +3933,10 @@
         <v>45378</v>
       </c>
       <c r="B325">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C325">
-        <v>0.0001581521210027859</v>
+        <v>0.0001326934288954362</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3944,10 +3944,10 @@
         <v>45378</v>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C326">
-        <v>0.0001583905395818874</v>
+        <v>0.0001283967576455325</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3955,131 +3955,131 @@
         <v>45378</v>
       </c>
       <c r="B327">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C327">
-        <v>0.0001581521210027859</v>
+        <v>0.0001308264472754672</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B328">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C328">
-        <v>0.002923423424363136</v>
+        <v>0.0001531968009658158</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C329">
-        <v>0.03024915605783463</v>
+        <v>0.0001680055866017938</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C330">
-        <v>0.07746683061122894</v>
+        <v>0.0001680055866017938</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B331">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C331">
-        <v>0.1050234884023666</v>
+        <v>0.0001692720106802881</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B332">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C332">
-        <v>0.1381350010633469</v>
+        <v>0.0001680055866017938</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B333">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C333">
-        <v>0.1434685289859772</v>
+        <v>0.005284019280225039</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B334">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C334">
-        <v>0.1406170576810837</v>
+        <v>0.04611631855368614</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B335">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C335">
-        <v>0.1151914745569229</v>
+        <v>0.1137517169117928</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B336">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C336">
-        <v>0.09897274523973465</v>
+        <v>0.1649633646011353</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C337">
-        <v>0.06988762319087982</v>
+        <v>0.1788905560970306</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B338">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C338">
-        <v>0.03287293761968613</v>
+        <v>0.2028253525495529</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_F4.xlsx
+++ b/Transavia/Production/Results/Results_daily_F4.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
       <c r="C2">
-        <v>0.01551758125424385</v>
+        <v>0.000312934018438682</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
       <c r="C3">
-        <v>0.001695754355750978</v>
+        <v>0.0002168708888348192</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B4">
         <v>18</v>
       </c>
       <c r="C4">
-        <v>0.0001335811248281971</v>
+        <v>0.06291872262954712</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B5">
         <v>19</v>
       </c>
       <c r="C5">
-        <v>0.0001442464563297108</v>
+        <v>0.04255939647555351</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
       <c r="C6">
-        <v>0.0001447602990083396</v>
+        <v>0.006429817993193865</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
       <c r="C7">
-        <v>0.0001447602990083396</v>
+        <v>0.0004235405649524182</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B8">
         <v>22</v>
       </c>
       <c r="C8">
-        <v>0.0001447602990083396</v>
+        <v>0.0002637269499246031</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B9">
         <v>23</v>
       </c>
       <c r="C9">
-        <v>0.000149044775753282</v>
+        <v>0.0002288125979248434</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0001607051672181115</v>
+        <v>0.0001265841419808567</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.000150852240039967</v>
+        <v>0.0001283275778405368</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>0.0001552658795844764</v>
+        <v>0.0001265652244910598</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.0001617958478163928</v>
+        <v>0.0001223995350301266</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>0.0001628881436772645</v>
+        <v>0.0001249967608600855</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>0.001066036755219102</v>
+        <v>0.0001249967608600855</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>0.03226856887340546</v>
+        <v>0.006434851791709661</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>0.08926303684711456</v>
+        <v>0.04940888285636902</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.139311820268631</v>
+        <v>0.1073465123772621</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>0.1610502749681473</v>
+        <v>0.1606496572494507</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
       <c r="C20">
-        <v>0.1549776941537857</v>
+        <v>0.1875733286142349</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B21">
         <v>11</v>
       </c>
       <c r="C21">
-        <v>0.1555476784706116</v>
+        <v>0.2109076231718063</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B22">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>0.1339346617460251</v>
+        <v>0.2168688178062439</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B23">
         <v>13</v>
       </c>
       <c r="C23">
-        <v>0.1234021410346031</v>
+        <v>0.2081018686294556</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B24">
         <v>14</v>
       </c>
       <c r="C24">
-        <v>0.08572156727313995</v>
+        <v>0.1943011730909348</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B25">
         <v>15</v>
       </c>
       <c r="C25">
-        <v>0.04174875840544701</v>
+        <v>0.1382587105035782</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B26">
         <v>16</v>
       </c>
       <c r="C26">
-        <v>0.02073325030505657</v>
+        <v>0.139904573559761</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B27">
         <v>17</v>
       </c>
       <c r="C27">
-        <v>0.001088029588572681</v>
+        <v>0.08908566832542419</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B28">
         <v>18</v>
       </c>
       <c r="C28">
-        <v>0.0001330255909124389</v>
+        <v>0.05651959031820297</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B29">
         <v>19</v>
       </c>
       <c r="C29">
-        <v>0.0001341501920251176</v>
+        <v>0.03817380964756012</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B30">
         <v>20</v>
       </c>
       <c r="C30">
-        <v>0.0001308264472754672</v>
+        <v>0.004948523361235857</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B31">
         <v>21</v>
       </c>
       <c r="C31">
-        <v>0.0001304763136431575</v>
+        <v>0.0001658081891946495</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B32">
         <v>22</v>
       </c>
       <c r="C32">
-        <v>0.0001320918381679803</v>
+        <v>0.0001661756541579962</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B33">
         <v>23</v>
       </c>
       <c r="C33">
-        <v>0.0001309995423071086</v>
+        <v>0.0001690276549197733</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.0001420143962604925</v>
+        <v>0.0001238626573467627</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>0.0001432808203389868</v>
+        <v>0.0001213581417687237</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>0.0001468531700083986</v>
+        <v>0.0001213581417687237</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>0.0001477044133935124</v>
+        <v>0.0001239553675986826</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>0.0001477115147281438</v>
+        <v>0.0001241501304320991</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0.002693885238841176</v>
+        <v>0.0001241501304320991</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>0.0405094251036644</v>
+        <v>0.004282136913388968</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B41">
         <v>7</v>
       </c>
       <c r="C41">
-        <v>0.1068112477660179</v>
+        <v>0.03426804021000862</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B42">
         <v>8</v>
       </c>
       <c r="C42">
-        <v>0.1636513620615005</v>
+        <v>0.07839921861886978</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B43">
         <v>9</v>
       </c>
       <c r="C43">
-        <v>0.1981462240219116</v>
+        <v>0.108259342610836</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B44">
         <v>10</v>
       </c>
       <c r="C44">
-        <v>0.1907850652933121</v>
+        <v>0.1351919919252396</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B45">
         <v>11</v>
       </c>
       <c r="C45">
-        <v>0.1770127713680267</v>
+        <v>0.1411257386207581</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B46">
         <v>12</v>
       </c>
       <c r="C46">
-        <v>0.1770640462636948</v>
+        <v>0.1395429819822311</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B47">
         <v>13</v>
       </c>
       <c r="C47">
-        <v>0.1535047590732574</v>
+        <v>0.1322161704301834</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B48">
         <v>14</v>
       </c>
       <c r="C48">
-        <v>0.1224244385957718</v>
+        <v>0.1067347750067711</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B49">
         <v>15</v>
       </c>
       <c r="C49">
-        <v>0.05277290195226669</v>
+        <v>0.07894391566514969</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B50">
         <v>16</v>
       </c>
       <c r="C50">
-        <v>0.02069604210555553</v>
+        <v>0.04478061944246292</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B51">
         <v>17</v>
       </c>
       <c r="C51">
-        <v>0.001240648212842643</v>
+        <v>0.03550944104790688</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B52">
         <v>18</v>
       </c>
       <c r="C52">
-        <v>0.0001386797812301666</v>
+        <v>0.03711596131324768</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B53">
         <v>19</v>
       </c>
       <c r="C53">
-        <v>0.0001308565842919052</v>
+        <v>0.0192271675914526</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B54">
         <v>20</v>
       </c>
       <c r="C54">
-        <v>0.0001282750017708167</v>
+        <v>0.003331542015075684</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B55">
         <v>21</v>
       </c>
       <c r="C55">
-        <v>0.0001308722567046061</v>
+        <v>0.0001604994322406128</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B56">
         <v>22</v>
       </c>
       <c r="C56">
-        <v>0.0001310670195380226</v>
+        <v>0.0001213582145282999</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B57">
         <v>23</v>
       </c>
       <c r="C57">
-        <v>0.0001310212101088837</v>
+        <v>0.0001213582145282999</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0.0001780222373781726</v>
+        <v>0.0001251480425707996</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>0.0001780222373781726</v>
+        <v>0.0001199588587041944</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60">
-        <v>0.0001356130815111101</v>
+        <v>0.0001161539039458148</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>0.0001635430380702019</v>
+        <v>0.0001333356485702097</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>0.0001648094621486962</v>
+        <v>0.0001310591178480536</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
       <c r="C63">
-        <v>0.004060030449181795</v>
+        <v>0.0001301548909395933</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>0.04668278619647026</v>
+        <v>0.003001916920766234</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B65">
         <v>7</v>
       </c>
       <c r="C65">
-        <v>0.1131899803876877</v>
+        <v>0.02196498215198517</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B66">
         <v>8</v>
       </c>
       <c r="C66">
-        <v>0.1638737916946411</v>
+        <v>0.03710703924298286</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B67">
         <v>9</v>
       </c>
       <c r="C67">
-        <v>0.1783098131418228</v>
+        <v>0.05131470412015915</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B68">
         <v>10</v>
       </c>
       <c r="C68">
-        <v>0.1948678195476532</v>
+        <v>0.08309688419103622</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B69">
         <v>11</v>
       </c>
       <c r="C69">
-        <v>0.1965152472257614</v>
+        <v>0.1058472022414207</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B70">
         <v>12</v>
       </c>
       <c r="C70">
-        <v>0.1742838472127914</v>
+        <v>0.1135195419192314</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B71">
         <v>13</v>
       </c>
       <c r="C71">
-        <v>0.1436958909034729</v>
+        <v>0.1219950839877129</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B72">
         <v>14</v>
       </c>
       <c r="C72">
-        <v>0.1255670189857483</v>
+        <v>0.1087145507335663</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B73">
         <v>15</v>
       </c>
       <c r="C73">
-        <v>0.07774535566568375</v>
+        <v>0.08697789162397385</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B74">
         <v>16</v>
       </c>
       <c r="C74">
-        <v>0.03284988552331924</v>
+        <v>0.0653827115893364</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B75">
         <v>17</v>
       </c>
       <c r="C75">
-        <v>0.003049011807888746</v>
+        <v>0.05455814301967621</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B76">
         <v>18</v>
       </c>
       <c r="C76">
-        <v>0.0001532651367597282</v>
+        <v>0.04414296895265579</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B77">
         <v>19</v>
       </c>
       <c r="C77">
-        <v>0.0001432473363820463</v>
+        <v>0.02078617550432682</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B78">
         <v>20</v>
       </c>
       <c r="C78">
-        <v>0.0001435177546227351</v>
+        <v>0.003705643815919757</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B79">
         <v>21</v>
       </c>
       <c r="C79">
-        <v>0.0001435177546227351</v>
+        <v>0.0001281938311876729</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B80">
         <v>22</v>
       </c>
       <c r="C80">
-        <v>0.0001352286635665223</v>
+        <v>0.0001665186864556745</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B81">
         <v>23</v>
       </c>
       <c r="C81">
-        <v>0.0001176449150079861</v>
+        <v>0.0001596830697963014</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0.0001451542775612324</v>
+        <v>0.0001271799555979669</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>0.0001457424950785935</v>
+        <v>0.0001271799555979669</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84">
-        <v>0.0001780222373781726</v>
+        <v>0.000113193818833679</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
       <c r="C85">
-        <v>0.0001778274745447561</v>
+        <v>0.0001189702015835792</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
       <c r="C86">
-        <v>0.0001785696367733181</v>
+        <v>0.0001215789234265685</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B87">
         <v>5</v>
       </c>
       <c r="C87">
-        <v>0.002894137986004353</v>
+        <v>0.0001215789234265685</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B88">
         <v>6</v>
       </c>
       <c r="C88">
-        <v>0.03489743545651436</v>
+        <v>0.006025089416652918</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B89">
         <v>7</v>
       </c>
       <c r="C89">
-        <v>0.08551129698753357</v>
+        <v>0.03492059931159019</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B90">
         <v>8</v>
       </c>
       <c r="C90">
-        <v>0.1293646842241287</v>
+        <v>0.08327996730804443</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B91">
         <v>9</v>
       </c>
       <c r="C91">
-        <v>0.1619010418653488</v>
+        <v>0.1276903450489044</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B92">
         <v>10</v>
       </c>
       <c r="C92">
-        <v>0.1610303819179535</v>
+        <v>0.16792131960392</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B93">
         <v>11</v>
       </c>
       <c r="C93">
-        <v>0.1392355561256409</v>
+        <v>0.1911400705575943</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B94">
         <v>12</v>
       </c>
       <c r="C94">
-        <v>0.135303258895874</v>
+        <v>0.1889993697404861</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B95">
         <v>13</v>
       </c>
       <c r="C95">
-        <v>0.1282702833414078</v>
+        <v>0.1824675500392914</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B96">
         <v>14</v>
       </c>
       <c r="C96">
-        <v>0.09235814213752747</v>
+        <v>0.1714149713516235</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B97">
         <v>15</v>
       </c>
       <c r="C97">
-        <v>0.05896719545125961</v>
+        <v>0.1167480498552322</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B98">
         <v>16</v>
       </c>
       <c r="C98">
-        <v>0.02040782198309898</v>
+        <v>0.1221774965524673</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B99">
         <v>17</v>
       </c>
       <c r="C99">
-        <v>0.001723994850181043</v>
+        <v>0.06913007795810699</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B100">
         <v>18</v>
       </c>
       <c r="C100">
-        <v>0.0001308565842919052</v>
+        <v>0.05531205236911774</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B101">
         <v>19</v>
       </c>
       <c r="C101">
-        <v>0.0001310284569626674</v>
+        <v>0.0252313818782568</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B102">
         <v>20</v>
       </c>
       <c r="C102">
-        <v>0.0001301332958973944</v>
+        <v>0.004777397960424423</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B103">
         <v>21</v>
       </c>
       <c r="C103">
-        <v>0.0001326934288954362</v>
+        <v>0.0001616452937014401</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B104">
         <v>22</v>
       </c>
       <c r="C104">
-        <v>0.0001444589579477906</v>
+        <v>0.0001433287688996643</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B105">
         <v>23</v>
       </c>
       <c r="C105">
-        <v>0.0001553455804241821</v>
+        <v>0.0001658081891946495</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>0.0002025255234912038</v>
+        <v>0.0001212824427057058</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107">
-        <v>0.0002134337701136246</v>
+        <v>0.0001189702015835792</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
       <c r="C108">
-        <v>0.0002105934108840302</v>
+        <v>0.0001215789234265685</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
       <c r="C109">
-        <v>0.000178941321792081</v>
+        <v>0.0001221671409439296</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B110">
         <v>4</v>
       </c>
       <c r="C110">
-        <v>0.0001572433247929439</v>
+        <v>0.0001262374862562865</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>0.001016829977743328</v>
+        <v>0.000112490335595794</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B112">
         <v>6</v>
       </c>
       <c r="C112">
-        <v>0.009252379648387432</v>
+        <v>0.007401055656373501</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B113">
         <v>7</v>
       </c>
       <c r="C113">
-        <v>0.02300257422029972</v>
+        <v>0.04380467534065247</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B114">
         <v>8</v>
       </c>
       <c r="C114">
-        <v>0.03523518890142441</v>
+        <v>0.09413449466228485</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B115">
         <v>9</v>
       </c>
       <c r="C115">
-        <v>0.04065793752670288</v>
+        <v>0.1389759927988052</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B116">
         <v>10</v>
       </c>
       <c r="C116">
-        <v>0.04885179921984673</v>
+        <v>0.1669393181800842</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B117">
         <v>11</v>
       </c>
       <c r="C117">
-        <v>0.05812158808112144</v>
+        <v>0.1847776919603348</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B118">
         <v>12</v>
       </c>
       <c r="C118">
-        <v>0.05488955602049828</v>
+        <v>0.1771546006202698</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B119">
         <v>13</v>
       </c>
       <c r="C119">
-        <v>0.0505058765411377</v>
+        <v>0.1555084884166718</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B120">
         <v>14</v>
       </c>
       <c r="C120">
-        <v>0.04152530431747437</v>
+        <v>0.1244984716176987</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B121">
         <v>15</v>
       </c>
       <c r="C121">
-        <v>0.02911544963717461</v>
+        <v>0.09501277655363083</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B122">
         <v>16</v>
       </c>
       <c r="C122">
-        <v>0.009392572566866875</v>
+        <v>0.06728058308362961</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B123">
         <v>17</v>
       </c>
       <c r="C123">
-        <v>0.0003960957983508706</v>
+        <v>0.04474863037467003</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B124">
         <v>18</v>
       </c>
       <c r="C124">
-        <v>0.0001523377723060548</v>
+        <v>0.03883042559027672</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B125">
         <v>19</v>
       </c>
       <c r="C125">
-        <v>0.0001607505255378783</v>
+        <v>0.01962627470493317</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B126">
         <v>20</v>
       </c>
       <c r="C126">
-        <v>0.0001575295900693163</v>
+        <v>0.002470348495990038</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B127">
         <v>21</v>
       </c>
       <c r="C127">
-        <v>0.0001539565273560584</v>
+        <v>0.0001624964352231473</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B128">
         <v>22</v>
       </c>
       <c r="C128">
-        <v>0.000149044775753282</v>
+        <v>0.0001582118857186288</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B129">
         <v>23</v>
       </c>
       <c r="C129">
-        <v>0.0001359375310130417</v>
+        <v>0.0001309555082116276</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>0.0001620240800548345</v>
+        <v>0.0001271799555979669</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131">
-        <v>0.0001631724444450811</v>
+        <v>0.0001319836592301726</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132">
-        <v>0.0001581521210027859</v>
+        <v>0.0001242438156623393</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B133">
         <v>3</v>
       </c>
       <c r="C133">
-        <v>0.0001581521210027859</v>
+        <v>0.0001361286413157359</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B134">
         <v>4</v>
       </c>
       <c r="C134">
-        <v>0.0001575639034854248</v>
+        <v>0.0001361286413157359</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
       <c r="C135">
-        <v>0.003141027176752687</v>
+        <v>0.0001378720626235008</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B136">
         <v>6</v>
       </c>
       <c r="C136">
-        <v>0.03779587894678116</v>
+        <v>0.003311372362077236</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B137">
         <v>7</v>
       </c>
       <c r="C137">
-        <v>0.09720630943775177</v>
+        <v>0.0219276174902916</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B138">
         <v>8</v>
       </c>
       <c r="C138">
-        <v>0.1434839963912964</v>
+        <v>0.03935376554727554</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B139">
         <v>9</v>
       </c>
       <c r="C139">
-        <v>0.1712144762277603</v>
+        <v>0.06244362145662308</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B140">
         <v>10</v>
       </c>
       <c r="C140">
-        <v>0.1857552379369736</v>
+        <v>0.08912774175405502</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B141">
         <v>11</v>
       </c>
       <c r="C141">
-        <v>0.1840342283248901</v>
+        <v>0.09770014882087708</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B142">
         <v>12</v>
       </c>
       <c r="C142">
-        <v>0.1487348526716232</v>
+        <v>0.1142723485827446</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B143">
         <v>13</v>
       </c>
       <c r="C143">
-        <v>0.1507963091135025</v>
+        <v>0.1267105489969254</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B144">
         <v>14</v>
       </c>
       <c r="C144">
-        <v>0.09282305836677551</v>
+        <v>0.112195685505867</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B145">
         <v>15</v>
       </c>
       <c r="C145">
-        <v>0.04534921050071716</v>
+        <v>0.09049543738365173</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B146">
         <v>16</v>
       </c>
       <c r="C146">
-        <v>0.0135349640622735</v>
+        <v>0.06431302428245544</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B147">
         <v>17</v>
       </c>
       <c r="C147">
-        <v>0.001083160517737269</v>
+        <v>0.05206908285617828</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B148">
         <v>18</v>
       </c>
       <c r="C148">
-        <v>0.0001401427143719047</v>
+        <v>0.04724269360303879</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B149">
         <v>19</v>
       </c>
       <c r="C149">
-        <v>0.0001382097543682903</v>
+        <v>0.02999201603233814</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B150">
         <v>20</v>
       </c>
       <c r="C150">
-        <v>0.0001356281718472019</v>
+        <v>0.005264183972030878</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B151">
         <v>21</v>
       </c>
       <c r="C151">
-        <v>0.0001358492445433512</v>
+        <v>0.0001591062173247337</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B152">
         <v>22</v>
       </c>
       <c r="C152">
-        <v>0.0001339375012321398</v>
+        <v>0.0001309555082116276</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B153">
         <v>23</v>
       </c>
       <c r="C153">
-        <v>0.0001290697982767597</v>
+        <v>0.0001309555082116276</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="C154">
-        <v>0.0001774399861460552</v>
+        <v>0.0001271799555979669</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155">
-        <v>0.0001772189134499058</v>
+        <v>0.0001271799555979669</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
       <c r="C156">
-        <v>0.0001733040990075096</v>
+        <v>0.0001262757286895066</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B157">
         <v>3</v>
       </c>
       <c r="C157">
-        <v>0.0001464379893150181</v>
+        <v>0.0001213174691656604</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B158">
         <v>4</v>
       </c>
       <c r="C158">
-        <v>0.0001441257481928915</v>
+        <v>0.0001176846999442205</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B159">
         <v>5</v>
       </c>
       <c r="C159">
-        <v>0.002568219089880586</v>
+        <v>0.0001171482363133691</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B160">
         <v>6</v>
       </c>
       <c r="C160">
-        <v>0.02291703410446644</v>
+        <v>0.005816560238599777</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B161">
         <v>7</v>
       </c>
       <c r="C161">
-        <v>0.06897984445095062</v>
+        <v>0.02789696119725704</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B162">
         <v>8</v>
       </c>
       <c r="C162">
-        <v>0.1028827503323555</v>
+        <v>0.05768624320626259</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B163">
         <v>9</v>
       </c>
       <c r="C163">
-        <v>0.1315963566303253</v>
+        <v>0.09161308407783508</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B164">
         <v>10</v>
       </c>
       <c r="C164">
-        <v>0.1739988476037979</v>
+        <v>0.113353468477726</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B165">
         <v>11</v>
       </c>
       <c r="C165">
-        <v>0.1838949471712112</v>
+        <v>0.1222754195332527</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B166">
         <v>12</v>
       </c>
       <c r="C166">
-        <v>0.162859633564949</v>
+        <v>0.1389582604169846</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B167">
         <v>13</v>
       </c>
       <c r="C167">
-        <v>0.146727129817009</v>
+        <v>0.1379948407411575</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B168">
         <v>14</v>
       </c>
       <c r="C168">
-        <v>0.0971609354019165</v>
+        <v>0.1252396255731583</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B169">
         <v>15</v>
       </c>
       <c r="C169">
-        <v>0.03882220014929771</v>
+        <v>0.1012094095349312</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B170">
         <v>16</v>
       </c>
       <c r="C170">
-        <v>0.01448407676070929</v>
+        <v>0.08644238114356995</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_F4.xlsx
+++ b/Transavia/Production/Results/Results_daily_F4.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>0.000312934018438682</v>
+        <v>-0.0009515272104181349</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0002168708888348192</v>
+        <v>-0.001243716338649392</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0.06291872262954712</v>
+        <v>0.2132685631513596</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0.04255939647555351</v>
+        <v>0.2150439471006393</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0.006429817993193865</v>
+        <v>0.2064483761787415</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>0.0004235405649524182</v>
+        <v>0.1924345940351486</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>0.0002637269499246031</v>
+        <v>0.1331856846809387</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>0.0002288125979248434</v>
+        <v>0.1294780224561691</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>0.0001265841419808567</v>
+        <v>0.07511461526155472</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>0.0001283275778405368</v>
+        <v>0.05372048541903496</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>0.0001265652244910598</v>
+        <v>0.039664376527071</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>0.0001223995350301266</v>
+        <v>0.01125185936689377</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>0.0001249967608600855</v>
+        <v>0.000157335089170374</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>0.0001249967608600855</v>
+        <v>0.000160242649144493</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>0.006434851791709661</v>
+        <v>0.000160242649144493</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04940888285636902</v>
+        <v>0.0001136502396548167</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.1073465123772621</v>
+        <v>0.0001136502396548167</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0.1606496572494507</v>
+        <v>9.121517359744757E-05</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>0.1875733286142349</v>
+        <v>9.121517359744757E-05</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>0.2109076231718063</v>
+        <v>7.572462345706299E-05</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>0.2168688178062439</v>
+        <v>0.0001925369433593005</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>0.2081018686294556</v>
+        <v>0.01820371486246586</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>0.1943011730909348</v>
+        <v>0.06287921220064163</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>0.1382587105035782</v>
+        <v>0.1279570907354355</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>0.139904573559761</v>
+        <v>0.1722782999277115</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>0.08908566832542419</v>
+        <v>0.2062275558710098</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>0.05651959031820297</v>
+        <v>0.218722939491272</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>0.03817380964756012</v>
+        <v>0.2084838151931763</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>0.004948523361235857</v>
+        <v>0.1901501715183258</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>0.0001658081891946495</v>
+        <v>0.1689944714307785</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>0.0001661756541579962</v>
+        <v>0.1163111850619316</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B33">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>0.0001690276549197733</v>
+        <v>0.1196809336543083</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>0.0001238626573467627</v>
+        <v>0.06838469952344894</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>0.0001213581417687237</v>
+        <v>0.06054189801216125</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>0.0001213581417687237</v>
+        <v>0.04187285900115967</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <v>0.0001239553675986826</v>
+        <v>0.01442260108888149</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C38">
-        <v>0.0001241501304320991</v>
+        <v>0.000160242649144493</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C39">
-        <v>0.0001241501304320991</v>
+        <v>0.0001600283867446706</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C40">
-        <v>0.004282136913388968</v>
+        <v>0.0001445378438802436</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.03426804021000862</v>
+        <v>7.572462345706299E-05</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.07839921861886978</v>
+        <v>7.572462345706299E-05</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>0.108259342610836</v>
+        <v>7.572462345706299E-05</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>0.1351919919252396</v>
+        <v>9.330832835985348E-05</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>0.1411257386207581</v>
+        <v>0.0001262947625946254</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>0.1395429819822311</v>
+        <v>0.0002073061041301116</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>0.1322161704301834</v>
+        <v>0.0185293760150671</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>0.1067347750067711</v>
+        <v>0.07349387556314468</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>0.07894391566514969</v>
+        <v>0.1267608851194382</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>0.04478061944246292</v>
+        <v>0.1740215867757797</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B51">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>0.03550944104790688</v>
+        <v>0.2067423015832901</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>0.03711596131324768</v>
+        <v>0.2212144583463669</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>0.0192271675914526</v>
+        <v>0.2131614685058594</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B54">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>0.003331542015075684</v>
+        <v>0.2045144587755203</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B55">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C55">
-        <v>0.0001604994322406128</v>
+        <v>0.1965290755033493</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B56">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>0.0001213582145282999</v>
+        <v>0.1601149439811707</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B57">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>0.0001213582145282999</v>
+        <v>0.1268151700496674</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C58">
-        <v>0.0001251480425707996</v>
+        <v>0.1290378868579865</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C59">
-        <v>0.0001199588587041944</v>
+        <v>0.07223851978778839</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>0.0001161539039458148</v>
+        <v>0.04581292718648911</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C61">
-        <v>0.0001333356485702097</v>
+        <v>0.01753009296953678</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C62">
-        <v>0.0001310591178480536</v>
+        <v>0.000162752068717964</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C63">
-        <v>0.0001301548909395933</v>
+        <v>0.000162752068717964</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C64">
-        <v>0.003001916920766234</v>
+        <v>0.000158467490109615</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.02196498215198517</v>
+        <v>8.739613986108452E-05</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>0.03710703924298286</v>
+        <v>8.739613986108452E-05</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>0.05131470412015915</v>
+        <v>0.0001221290149260312</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>0.08309688419103622</v>
+        <v>0.0001224184525199234</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>0.1058472022414207</v>
+        <v>0.0001224184525199234</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>0.1135195419192314</v>
+        <v>0.0003486589121166617</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B71">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>0.1219950839877129</v>
+        <v>0.023989237844944</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>0.1087145507335663</v>
+        <v>0.07681292295455933</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B73">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>0.08697789162397385</v>
+        <v>0.1342477202415466</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>0.0653827115893364</v>
+        <v>0.1726962029933929</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B75">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>0.05455814301967621</v>
+        <v>0.202971488237381</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B76">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C76">
-        <v>0.04414296895265579</v>
+        <v>0.216075211763382</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B77">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C77">
-        <v>0.02078617550432682</v>
+        <v>0.2076010555028915</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B78">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C78">
-        <v>0.003705643815919757</v>
+        <v>0.1998078972101212</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B79">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C79">
-        <v>0.0001281938311876729</v>
+        <v>0.1833572387695312</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B80">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>0.0001665186864556745</v>
+        <v>0.1347740143537521</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B81">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C81">
-        <v>0.0001596830697963014</v>
+        <v>0.1475910991430283</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C82">
-        <v>0.0001271799555979669</v>
+        <v>0.1168733835220337</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>0.0001271799555979669</v>
+        <v>0.06408346444368362</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C84">
-        <v>0.000113193818833679</v>
+        <v>0.04942235723137856</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C85">
-        <v>0.0001189702015835792</v>
+        <v>0.01198299694806337</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C86">
-        <v>0.0001215789234265685</v>
+        <v>0.0001280834549106658</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C87">
-        <v>0.0001215789234265685</v>
+        <v>0.0001673769438639283</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C88">
-        <v>0.006025089416652918</v>
+        <v>0.0001694055390544236</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0.03492059931159019</v>
+        <v>0.0001171482363133691</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>0.08327996730804443</v>
+        <v>0.0001152266268036328</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>0.1276903450489044</v>
+        <v>0.0001213581417687237</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C92">
-        <v>0.16792131960392</v>
+        <v>0.0001215529046021402</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>0.1911400705575943</v>
+        <v>0.0001192406634800136</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B94">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>0.1889993697404861</v>
+        <v>0.0001714377576718107</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B95">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>0.1824675500392914</v>
+        <v>0.01801167987287045</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>0.1714149713516235</v>
+        <v>0.05302243307232857</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B97">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>0.1167480498552322</v>
+        <v>0.08708465844392776</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B98">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C98">
-        <v>0.1221774965524673</v>
+        <v>0.1171619817614555</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B99">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>0.06913007795810699</v>
+        <v>0.1437099575996399</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B100">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C100">
-        <v>0.05531205236911774</v>
+        <v>0.1497047990560532</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B101">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C101">
-        <v>0.0252313818782568</v>
+        <v>0.1520166546106339</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B102">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C102">
-        <v>0.004777397960424423</v>
+        <v>0.1564289182424545</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B103">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C103">
-        <v>0.0001616452937014401</v>
+        <v>0.1508573740720749</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B104">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C104">
-        <v>0.0001433287688996643</v>
+        <v>0.116201139986515</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B105">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C105">
-        <v>0.0001658081891946495</v>
+        <v>0.1325955092906952</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C106">
-        <v>0.0001212824427057058</v>
+        <v>0.1033266261219978</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C107">
-        <v>0.0001189702015835792</v>
+        <v>0.05262947827577591</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C108">
-        <v>0.0001215789234265685</v>
+        <v>0.04319395124912262</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C109">
-        <v>0.0001221671409439296</v>
+        <v>0.01290873624384403</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C110">
-        <v>0.0001262374862562865</v>
+        <v>0.0001596473302925006</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C111">
-        <v>0.000112490335595794</v>
+        <v>0.0001553626934764907</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C112">
-        <v>0.007401055656373501</v>
+        <v>0.00012810634507332</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B113">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.04380467534065247</v>
+        <v>0.0001189702015835792</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>0.09413449466228485</v>
+        <v>0.0001212895440403372</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B115">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>0.1389759927988052</v>
+        <v>0.0001215789234265685</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B116">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>0.1669393181800842</v>
+        <v>0.0001215789234265685</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B117">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>0.1847776919603348</v>
+        <v>0.0001192595809698105</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B118">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>0.1771546006202698</v>
+        <v>0.0002036511432379484</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B119">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>0.1555084884166718</v>
+        <v>0.01741447858512402</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B120">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>0.1244984716176987</v>
+        <v>0.06156940013170242</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B121">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>0.09501277655363083</v>
+        <v>0.09190534055233002</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C122">
-        <v>0.06728058308362961</v>
+        <v>0.1237123981118202</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B123">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C123">
-        <v>0.04474863037467003</v>
+        <v>0.1455936282873154</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B124">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C124">
-        <v>0.03883042559027672</v>
+        <v>0.1567844450473785</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B125">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>0.01962627470493317</v>
+        <v>0.1574847996234894</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B126">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C126">
-        <v>0.002470348495990038</v>
+        <v>0.1440885812044144</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B127">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C127">
-        <v>0.0001624964352231473</v>
+        <v>0.1259532868862152</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B128">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C128">
-        <v>0.0001582118857186288</v>
+        <v>0.09902829676866531</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B129">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C129">
-        <v>0.0001309555082116276</v>
+        <v>0.06881634891033173</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C130">
-        <v>0.0001271799555979669</v>
+        <v>0.05065020173788071</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C131">
-        <v>0.0001319836592301726</v>
+        <v>0.0437559075653553</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C132">
-        <v>0.0001242438156623393</v>
+        <v>0.03569810464978218</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C133">
-        <v>0.0001361286413157359</v>
+        <v>0.01150438655167818</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C134">
-        <v>0.0001361286413157359</v>
+        <v>0.0001624964352231473</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C135">
-        <v>0.0001378720626235008</v>
+        <v>0.0001582118857186288</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B136">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C136">
-        <v>0.003311372362077236</v>
+        <v>0.0001309555082116276</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B137">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>0.0219276174902916</v>
+        <v>8.389628055738285E-05</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>0.03935376554727554</v>
+        <v>0.0001222216669702902</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B139">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C139">
-        <v>0.06244362145662308</v>
+        <v>0.0001213766663568094</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B140">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>0.08912774175405502</v>
+        <v>0.0001184438442578539</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B141">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <v>0.09770014882087708</v>
+        <v>0.0001184438442578539</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B142">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C142">
-        <v>0.1142723485827446</v>
+        <v>0.0002032090706052259</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B143">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C143">
-        <v>0.1267105489969254</v>
+        <v>0.01396046113222837</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B144">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C144">
-        <v>0.112195685505867</v>
+        <v>0.0439683273434639</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B145">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C145">
-        <v>0.09049543738365173</v>
+        <v>0.07679259032011032</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B146">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C146">
-        <v>0.06431302428245544</v>
+        <v>0.1086901500821114</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B147">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C147">
-        <v>0.05206908285617828</v>
+        <v>0.1388993114233017</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B148">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C148">
-        <v>0.04724269360303879</v>
+        <v>0.1491970717906952</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B149">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C149">
-        <v>0.02999201603233814</v>
+        <v>0.1602814197540283</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B150">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C150">
-        <v>0.005264183972030878</v>
+        <v>0.1553852260112762</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B151">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C151">
-        <v>0.0001591062173247337</v>
+        <v>0.1464090049266815</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B152">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C152">
-        <v>0.0001309555082116276</v>
+        <v>0.1159013882279396</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B153">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C153">
-        <v>0.0001309555082116276</v>
+        <v>0.1171755790710449</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C154">
-        <v>0.0001271799555979669</v>
+        <v>0.06470987200737</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C155">
-        <v>0.0001271799555979669</v>
+        <v>0.05128860846161842</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C156">
-        <v>0.0001262757286895066</v>
+        <v>0.03698889166116714</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C157">
-        <v>0.0001213174691656604</v>
+        <v>0.01018840447068214</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C158">
-        <v>0.0001176846999442205</v>
+        <v>0.0001596244401298463</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B159">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C159">
-        <v>0.0001171482363133691</v>
+        <v>0.0001590242609381676</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B160">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C160">
-        <v>0.005816560238599777</v>
+        <v>0.0001548177970107645</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B161">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>0.02789696119725704</v>
+        <v>0.0001136022910941392</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B162">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C162">
-        <v>0.05768624320626259</v>
+        <v>8.654950943309814E-05</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B163">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C163">
-        <v>0.09161308407783508</v>
+        <v>8.654950943309814E-05</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B164">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C164">
-        <v>0.113353468477726</v>
+        <v>8.423726831097156E-05</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B165">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C165">
-        <v>0.1222754195332527</v>
+        <v>0.0001189702015835792</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B166">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C166">
-        <v>0.1389582604169846</v>
+        <v>0.0003474870754871517</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B167">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C167">
-        <v>0.1379948407411575</v>
+        <v>0.01739999279379845</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B168">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C168">
-        <v>0.1252396255731583</v>
+        <v>0.05854791030287743</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B169">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C169">
-        <v>0.1012094095349312</v>
+        <v>0.1086172088980675</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B170">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C170">
-        <v>0.08644238114356995</v>
+        <v>0.1442763358354568</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_F4.xlsx
+++ b/Transavia/Production/Results/Results_daily_F4.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0009515272104181349</v>
+        <v>-0.0005275003495626152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.001243716338649392</v>
+        <v>-0.0002991482615470886</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.2132685631513596</v>
+        <v>0.1697573363780975</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.2150439471006393</v>
+        <v>0.2011355012655258</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.2064483761787415</v>
+        <v>0.2125544548034668</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.1924345940351486</v>
+        <v>0.2117458134889603</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.1331856846809387</v>
+        <v>0.2019967436790466</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>0.1294780224561691</v>
+        <v>0.191715344786644</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>0.07511461526155472</v>
+        <v>0.1517008990049362</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>0.05372048541903496</v>
+        <v>0.1344986110925674</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>0.039664376527071</v>
+        <v>0.1321241557598114</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>0.01125185936689377</v>
+        <v>0.07137003540992737</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>0.000157335089170374</v>
+        <v>0.04818094521760941</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>0.000160242649144493</v>
+        <v>0.01741302572190762</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>0.000160242649144493</v>
+        <v>0.0002150966029148549</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45437</v>
+        <v>45461</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>0.0001136502396548167</v>
+        <v>0.0001800699683371931</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45437</v>
+        <v>45461</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>0.0001136502396548167</v>
+        <v>0.0001839181932155043</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>9.121517359744757E-05</v>
+        <v>0.0001325705088675022</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>9.121517359744757E-05</v>
+        <v>0.0001151059186668135</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>7.572462345706299E-05</v>
+        <v>0.0001292020315304399</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>0.0001925369433593005</v>
+        <v>0.0001292020315304399</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>0.01820371486246586</v>
+        <v>0.0001292020315304399</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>0.06287921220064163</v>
+        <v>0.0003834801900666207</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>0.1279570907354355</v>
+        <v>0.02337314374744892</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>0.1722782999277115</v>
+        <v>0.07493541389703751</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>0.2062275558710098</v>
+        <v>0.1252845525741577</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>0.218722939491272</v>
+        <v>0.1696645170450211</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>0.2084838151931763</v>
+        <v>0.1995866596698761</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>0.1901501715183258</v>
+        <v>0.2100553810596466</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>0.1689944714307785</v>
+        <v>0.2114487588405609</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>0.1163111850619316</v>
+        <v>0.2041562646627426</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>0.1196809336543083</v>
+        <v>0.1946813017129898</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>0.06838469952344894</v>
+        <v>0.1586196571588516</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>0.06054189801216125</v>
+        <v>0.1362107843160629</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>0.04187285900115967</v>
+        <v>0.1308255642652512</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>0.01442260108888149</v>
+        <v>0.07343307137489319</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>0.000160242649144493</v>
+        <v>0.04932842776179314</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>0.0001600283867446706</v>
+        <v>0.01632031425833702</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B40">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40">
-        <v>0.0001445378438802436</v>
+        <v>7.325343176489696E-05</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45438</v>
+        <v>45462</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>7.572462345706299E-05</v>
+        <v>7.651803753105924E-05</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45438</v>
+        <v>45462</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C42">
-        <v>7.572462345706299E-05</v>
+        <v>0.0001669068005867302</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>7.572462345706299E-05</v>
+        <v>0.0001586864818818867</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>9.330832835985348E-05</v>
+        <v>0.0001210212358273566</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>0.0001262947625946254</v>
+        <v>0.0001210212358273566</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>0.0002073061041301116</v>
+        <v>0.0001210212358273566</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>0.0185293760150671</v>
+        <v>0.0001210212358273566</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>0.07349387556314468</v>
+        <v>0.0003981671470683068</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>0.1267608851194382</v>
+        <v>0.01767502538859844</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>0.1740215867757797</v>
+        <v>0.06351236253976822</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>0.2067423015832901</v>
+        <v>0.1201301887631416</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>0.2212144583463669</v>
+        <v>0.165647029876709</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>0.2131614685058594</v>
+        <v>0.1887102425098419</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C54">
-        <v>0.2045144587755203</v>
+        <v>0.2040535658597946</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C55">
-        <v>0.1965290755033493</v>
+        <v>0.2068085372447968</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56">
-        <v>0.1601149439811707</v>
+        <v>0.1965912133455276</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C57">
-        <v>0.1268151700496674</v>
+        <v>0.1770522892475128</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B58">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>0.1290378868579865</v>
+        <v>0.1324770599603653</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B59">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>0.07223851978778839</v>
+        <v>0.1353629678487778</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C60">
-        <v>0.04581292718648911</v>
+        <v>0.1059199199080467</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C61">
-        <v>0.01753009296953678</v>
+        <v>0.05803356692194939</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62">
-        <v>0.000162752068717964</v>
+        <v>0.04225266724824905</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C63">
-        <v>0.000162752068717964</v>
+        <v>0.01779430918395519</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B64">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C64">
-        <v>0.000158467490109615</v>
+        <v>0.0009115398861467838</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45439</v>
+        <v>45463</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C65">
-        <v>8.739613986108452E-05</v>
+        <v>0.0001800699683371931</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45439</v>
+        <v>45463</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C66">
-        <v>8.739613986108452E-05</v>
+        <v>0.0001774445408955216</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0.0001221290149260312</v>
+        <v>0.0001248694898094982</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>0.0001224184525199234</v>
+        <v>0.0001316915440838784</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>0.0001224184525199234</v>
+        <v>0.0001316915440838784</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>0.0003486589121166617</v>
+        <v>0.0001351142127532512</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>0.023989237844944</v>
+        <v>0.0001351142127532512</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>0.07681292295455933</v>
+        <v>0.0004058452614117414</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73">
-        <v>0.1342477202415466</v>
+        <v>0.02282539941370487</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>0.1726962029933929</v>
+        <v>0.07397893816232681</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75">
-        <v>0.202971488237381</v>
+        <v>0.1256203651428223</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>0.216075211763382</v>
+        <v>0.1680848747491837</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>0.2076010555028915</v>
+        <v>0.1931387782096863</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C78">
-        <v>0.1998078972101212</v>
+        <v>0.2066514045000076</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>0.1833572387695312</v>
+        <v>0.207200825214386</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C80">
-        <v>0.1347740143537521</v>
+        <v>0.2000860273838043</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B81">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81">
-        <v>0.1475910991430283</v>
+        <v>0.1901758760213852</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B82">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C82">
-        <v>0.1168733835220337</v>
+        <v>0.1476745307445526</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B83">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C83">
-        <v>0.06408346444368362</v>
+        <v>0.1266724020242691</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B84">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C84">
-        <v>0.04942235723137856</v>
+        <v>0.1244706884026527</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C85">
-        <v>0.01198299694806337</v>
+        <v>0.07213563472032547</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B86">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C86">
-        <v>0.0001280834549106658</v>
+        <v>0.04057339578866959</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B87">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C87">
-        <v>0.0001673769438639283</v>
+        <v>0.0168560016900301</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B88">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C88">
-        <v>0.0001694055390544236</v>
+        <v>-0.000103894439234864</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45440</v>
+        <v>45464</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C89">
-        <v>0.0001171482363133691</v>
+        <v>0.0001136998835136183</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45440</v>
+        <v>45464</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C90">
-        <v>0.0001152266268036328</v>
+        <v>0.0001475707103963941</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0.0001213581417687237</v>
+        <v>0.0001248779881279916</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>0.0001215529046021402</v>
+        <v>0.0001578074879944324</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>0.0001192406634800136</v>
+        <v>0.0001219002297148108</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>0.0001714377576718107</v>
+        <v>0.0001219002297148108</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>0.01801167987287045</v>
+        <v>0.0001168565431726165</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>0.05302243307232857</v>
+        <v>0.00037370141944848</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>0.08708465844392776</v>
+        <v>0.02280302345752716</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>0.1171619817614555</v>
+        <v>0.07327074557542801</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>0.1437099575996399</v>
+        <v>0.1218116879463196</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C100">
-        <v>0.1497047990560532</v>
+        <v>0.1659236550331116</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>0.1520166546106339</v>
+        <v>0.190871000289917</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B102">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C102">
-        <v>0.1564289182424545</v>
+        <v>0.2037037461996078</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B103">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C103">
-        <v>0.1508573740720749</v>
+        <v>0.2065243571996689</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B104">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C104">
-        <v>0.116201139986515</v>
+        <v>0.200735941529274</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B105">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C105">
-        <v>0.1325955092906952</v>
+        <v>0.1897424459457397</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B106">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C106">
-        <v>0.1033266261219978</v>
+        <v>0.1477182358503342</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B107">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C107">
-        <v>0.05262947827577591</v>
+        <v>0.1366722732782364</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B108">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C108">
-        <v>0.04319395124912262</v>
+        <v>0.1006775349378586</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B109">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C109">
-        <v>0.01290873624384403</v>
+        <v>0.051225446164608</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B110">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C110">
-        <v>0.0001596473302925006</v>
+        <v>0.02920491248369217</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C111">
-        <v>0.0001553626934764907</v>
+        <v>0.01197030954062939</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B112">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C112">
-        <v>0.00012810634507332</v>
+        <v>0.0001504830288467929</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45441</v>
+        <v>45465</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C113">
-        <v>0.0001189702015835792</v>
+        <v>0.0001559206575620919</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45441</v>
+        <v>45465</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C114">
-        <v>0.0001212895440403372</v>
+        <v>0.0001582917611813173</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>0.0001215789234265685</v>
+        <v>0.000108071202703286</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>0.0001215789234265685</v>
+        <v>0.0001187059679068625</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C117">
-        <v>0.0001192595809698105</v>
+        <v>0.0001248694898094982</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C118">
-        <v>0.0002036511432379484</v>
+        <v>0.0001151059186668135</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>0.01741447858512402</v>
+        <v>0.0001151059186668135</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120">
-        <v>0.06156940013170242</v>
+        <v>0.0003719505912158638</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121">
-        <v>0.09190534055233002</v>
+        <v>0.02261592447757721</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C122">
-        <v>0.1237123981118202</v>
+        <v>0.06909685581922531</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C123">
-        <v>0.1455936282873154</v>
+        <v>0.1203320920467377</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C124">
-        <v>0.1567844450473785</v>
+        <v>0.1653957068920135</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C125">
-        <v>0.1574847996234894</v>
+        <v>0.1883537471294403</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B126">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C126">
-        <v>0.1440885812044144</v>
+        <v>0.2045337557792664</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C127">
-        <v>0.1259532868862152</v>
+        <v>0.2039991170167923</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B128">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C128">
-        <v>0.09902829676866531</v>
+        <v>0.1834647357463837</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B129">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C129">
-        <v>0.06881634891033173</v>
+        <v>0.1598774343729019</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B130">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C130">
-        <v>0.05065020173788071</v>
+        <v>0.1179216504096985</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B131">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C131">
-        <v>0.0437559075653553</v>
+        <v>0.1068061664700508</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B132">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C132">
-        <v>0.03569810464978218</v>
+        <v>0.05334850773215294</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B133">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C133">
-        <v>0.01150438655167818</v>
+        <v>0.04207879304885864</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B134">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C134">
-        <v>0.0001624964352231473</v>
+        <v>0.03735598549246788</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B135">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C135">
-        <v>0.0001582118857186288</v>
+        <v>0.0153093384578824</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B136">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C136">
-        <v>0.0001309555082116276</v>
+        <v>0.0002096887183142826</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C137">
-        <v>8.389628055738285E-05</v>
+        <v>0.0001603154378244653</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C138">
-        <v>0.0001222216669702902</v>
+        <v>0.0001612896012375131</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>0.0001213766663568094</v>
+        <v>0.0001136579012381844</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>0.0001184438442578539</v>
+        <v>0.0001187415327876806</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C141">
-        <v>0.0001184438442578539</v>
+        <v>0.0001255280803889036</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>0.0002032090706052259</v>
+        <v>0.0001295984257012606</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B143">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C143">
-        <v>0.01396046113222837</v>
+        <v>0.0001295984257012606</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144">
-        <v>0.0439683273434639</v>
+        <v>0.0003884734178427607</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145">
-        <v>0.07679259032011032</v>
+        <v>0.01764543168246746</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B146">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C146">
-        <v>0.1086901500821114</v>
+        <v>0.06206691265106201</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B147">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C147">
-        <v>0.1388993114233017</v>
+        <v>0.1202435940504074</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B148">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C148">
-        <v>0.1491970717906952</v>
+        <v>0.1656021475791931</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B149">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C149">
-        <v>0.1602814197540283</v>
+        <v>0.1913521438837051</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B150">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C150">
-        <v>0.1553852260112762</v>
+        <v>0.2050656676292419</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B151">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C151">
-        <v>0.1464090049266815</v>
+        <v>0.2068085372447968</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B152">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C152">
-        <v>0.1159013882279396</v>
+        <v>0.1998198926448822</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B153">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C153">
-        <v>0.1171755790710449</v>
+        <v>0.1901060938835144</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B154">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C154">
-        <v>0.06470987200737</v>
+        <v>0.1480977386236191</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B155">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C155">
-        <v>0.05128860846161842</v>
+        <v>0.1263049989938736</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B156">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C156">
-        <v>0.03698889166116714</v>
+        <v>0.1270930022001266</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B157">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C157">
-        <v>0.01018840447068214</v>
+        <v>0.07223569601774216</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B158">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C158">
-        <v>0.0001596244401298463</v>
+        <v>0.04462055861949921</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B159">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C159">
-        <v>0.0001590242609381676</v>
+        <v>0.01750016771256924</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B160">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C160">
-        <v>0.0001548177970107645</v>
+        <v>0.0002112511429004371</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45443</v>
+        <v>45467</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C161">
-        <v>0.0001136022910941392</v>
+        <v>0.0001621882547624409</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45443</v>
+        <v>45467</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C162">
-        <v>8.654950943309814E-05</v>
+        <v>0.0001712810189928859</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C163">
-        <v>8.654950943309814E-05</v>
+        <v>0.0001227763423230499</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C164">
-        <v>8.423726831097156E-05</v>
+        <v>0.0001072857194230892</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C165">
-        <v>0.0001189702015835792</v>
+        <v>0.0001316915440838784</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B166">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C166">
-        <v>0.0003474870754871517</v>
+        <v>0.0001325705088675022</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B167">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C167">
-        <v>0.01739999279379845</v>
+        <v>0.0001325705088675022</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B168">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168">
-        <v>0.05854791030287743</v>
+        <v>0.0004058679623994976</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B169">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169">
-        <v>0.1086172088980675</v>
+        <v>0.01933298446238041</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B170">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C170">
-        <v>0.1442763358354568</v>
+        <v>0.06986246258020401</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_F4.xlsx
+++ b/Transavia/Production/Results/Results_daily_F4.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>-0.0005275003495626152</v>
+        <v>-0.0002081972343148664</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>-0.0002991482615470886</v>
+        <v>0.0007422015769407153</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0.1697573363780975</v>
+        <v>0.1591723263263702</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0.2011355012655258</v>
+        <v>0.1455426216125488</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>0.2125544548034668</v>
+        <v>0.117200531065464</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>0.2117458134889603</v>
+        <v>0.08299291878938675</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.2019967436790466</v>
+        <v>0.06281877309083939</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0.191715344786644</v>
+        <v>0.04760438576340675</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0.1517008990049362</v>
+        <v>0.03767320141196251</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>0.1344986110925674</v>
+        <v>0.03039683774113655</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>0.1321241557598114</v>
+        <v>0.007448972202837467</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>0.07137003540992737</v>
+        <v>-3.370179547346197E-05</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>0.04818094521760941</v>
+        <v>0.0002096920652547851</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>0.01741302572190762</v>
+        <v>0.0001362976909149438</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0002150966029148549</v>
+        <v>0.0001478334306739271</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.0001800699683371931</v>
+        <v>0.0001146647773566656</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B18">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0.0001839181932155043</v>
+        <v>0.0001320234005106613</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.0001325705088675022</v>
+        <v>0.0001314760011155158</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0.0001151059186668135</v>
+        <v>0.0001347947982139885</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.0001292020315304399</v>
+        <v>0.0001181389816338196</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.0001292020315304399</v>
+        <v>0.004337718710303307</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>0.0001292020315304399</v>
+        <v>0.03174298256635666</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.0003834801900666207</v>
+        <v>0.07157159596681595</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>0.02337314374744892</v>
+        <v>0.1111851334571838</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0.07493541389703751</v>
+        <v>0.1386129707098007</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>0.1252845525741577</v>
+        <v>0.1493985205888748</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>0.1696645170450211</v>
+        <v>0.1570251137018204</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>0.1995866596698761</v>
+        <v>0.1522307544946671</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>0.2100553810596466</v>
+        <v>0.1418496668338776</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>0.2114487588405609</v>
+        <v>0.1145694479346275</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>0.2041562646627426</v>
+        <v>0.1288927346467972</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>0.1946813017129898</v>
+        <v>0.0694412961602211</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>0.1586196571588516</v>
+        <v>0.04762070253491402</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>0.1362107843160629</v>
+        <v>0.03455963730812073</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>0.1308255642652512</v>
+        <v>0.007693553809076548</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>0.07343307137489319</v>
+        <v>0.0001526367414044216</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>0.04932842776179314</v>
+        <v>0.0001582278782734647</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>0.01632031425833702</v>
+        <v>0.0001574288035044447</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>7.325343176489696E-05</v>
+        <v>0.0001495115866418928</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>7.651803753105924E-05</v>
+        <v>0.0001469451817683876</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B42">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>0.0001669068005867302</v>
+        <v>0.0001435495069017634</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0.0001586864818818867</v>
+        <v>0.0001423311769030988</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>0.0001210212358273566</v>
+        <v>0.0001459726627217606</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>0.0001210212358273566</v>
+        <v>0.0001222472928930074</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>0.0001210212358273566</v>
+        <v>0.002277364488691092</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>0.0001210212358273566</v>
+        <v>0.01922797970473766</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>0.0003981671470683068</v>
+        <v>0.04682853817939758</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.01767502538859844</v>
+        <v>0.07678919285535812</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>0.06351236253976822</v>
+        <v>0.1055890917778015</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>0.1201301887631416</v>
+        <v>0.1296593099832535</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>0.165647029876709</v>
+        <v>0.1359365731477737</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>0.1887102425098419</v>
+        <v>0.1328981220722198</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>0.2040535658597946</v>
+        <v>0.1156194135546684</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>0.2068085372447968</v>
+        <v>0.0901883989572525</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>0.1965912133455276</v>
+        <v>0.07595250755548477</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B57">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>0.1770522892475128</v>
+        <v>0.05169625952839851</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B58">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>0.1324770599603653</v>
+        <v>0.04448533058166504</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B59">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>0.1353629678487778</v>
+        <v>0.03662845864892006</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B60">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>0.1059199199080467</v>
+        <v>0.005889534018933773</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B61">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C61">
-        <v>0.05803356692194939</v>
+        <v>0.0001508622372057289</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B62">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>0.04225266724824905</v>
+        <v>0.0001607120939297602</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B63">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>0.01779430918395519</v>
+        <v>0.0001523638202343136</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B64">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.0009115398861467838</v>
+        <v>0.0001118852742365561</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B65">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>0.0001800699683371931</v>
+        <v>0.000119991265819408</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B66">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>0.0001774445408955216</v>
+        <v>0.0001360046735499054</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>0.0001248694898094982</v>
+        <v>0.0001396921725245193</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>0.0001316915440838784</v>
+        <v>0.0001422795176040381</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>0.0001316915440838784</v>
+        <v>0.0001202311395900324</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>0.0001351142127532512</v>
+        <v>0.004551544785499573</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>0.0001351142127532512</v>
+        <v>0.04027996957302094</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>0.0004058452614117414</v>
+        <v>0.09331967681646347</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0.02282539941370487</v>
+        <v>0.1428869962692261</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>0.07397893816232681</v>
+        <v>0.1723214238882065</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>0.1256203651428223</v>
+        <v>0.1913672238588333</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>0.1680848747491837</v>
+        <v>0.1911263763904572</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>0.1931387782096863</v>
+        <v>0.1758414208889008</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>0.2066514045000076</v>
+        <v>0.1584685295820236</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>0.207200825214386</v>
+        <v>0.1150224432349205</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B80">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>0.2000860273838043</v>
+        <v>0.1083272472023964</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B81">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>0.1901758760213852</v>
+        <v>0.05152963101863861</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B82">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>0.1476745307445526</v>
+        <v>0.04010429978370667</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B83">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C83">
-        <v>0.1266724020242691</v>
+        <v>0.01996915228664875</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B84">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>0.1244706884026527</v>
+        <v>0.004625266883522272</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B85">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>0.07213563472032547</v>
+        <v>0.0001634654909139499</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B86">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C86">
-        <v>0.04057339578866959</v>
+        <v>0.0001610093313502148</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C87">
-        <v>0.0168560016900301</v>
+        <v>0.0001684591406956315</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B88">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>-0.000103894439234864</v>
+        <v>0.0001327059435425326</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B89">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>0.0001136998835136183</v>
+        <v>0.0001399790489813313</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B90">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>0.0001475707103963941</v>
+        <v>0.0001401766057824716</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>0.0001248779881279916</v>
+        <v>0.0001350195816485211</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>0.0001578074879944324</v>
+        <v>0.0001507763663539663</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>0.0001219002297148108</v>
+        <v>0.0001364048657706007</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>0.0001219002297148108</v>
+        <v>0.003130345838144422</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>0.0001168565431726165</v>
+        <v>0.0277283638715744</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>0.00037370141944848</v>
+        <v>0.06620679050683975</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>0.02280302345752716</v>
+        <v>0.109551377594471</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>0.07327074557542801</v>
+        <v>0.1538281291723251</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>0.1218116879463196</v>
+        <v>0.1743137389421463</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>0.1659236550331116</v>
+        <v>0.1705354005098343</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>0.190871000289917</v>
+        <v>0.1540620177984238</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>0.2037037461996078</v>
+        <v>0.1197396814823151</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B103">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>0.2065243571996689</v>
+        <v>0.09314731508493423</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B104">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>0.200735941529274</v>
+        <v>0.1073134988546371</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B105">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>0.1897424459457397</v>
+        <v>0.0643397644162178</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B106">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>0.1477182358503342</v>
+        <v>0.04875360056757927</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B107">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>0.1366722732782364</v>
+        <v>0.03766327351331711</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B108">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>0.1006775349378586</v>
+        <v>0.007918304763734341</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B109">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C109">
-        <v>0.051225446164608</v>
+        <v>0.0001620696566533297</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B110">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C110">
-        <v>0.02920491248369217</v>
+        <v>0.0001655516098253429</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B111">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C111">
-        <v>0.01197030954062939</v>
+        <v>0.0001613034692127258</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B112">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0.0001504830288467929</v>
+        <v>0.0001422795176040381</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B113">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>0.0001559206575620919</v>
+        <v>0.0001406419469276443</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B114">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>0.0001582917611813173</v>
+        <v>0.0001435495069017634</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>0.000108071202703286</v>
+        <v>0.0001476198522141203</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>0.0001187059679068625</v>
+        <v>0.000132129222038202</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>0.0001248694898094982</v>
+        <v>0.0001345195778412744</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>0.0001151059186668135</v>
+        <v>0.006083627231419086</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>0.0001151059186668135</v>
+        <v>0.04282258823513985</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>0.0003719505912158638</v>
+        <v>0.0937458872795105</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>0.02261592447757721</v>
+        <v>0.1480786353349686</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>0.06909685581922531</v>
+        <v>0.1732841730117798</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B123">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>0.1203320920467377</v>
+        <v>0.1934500336647034</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>0.1653957068920135</v>
+        <v>0.1986469775438309</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>0.1883537471294403</v>
+        <v>0.1953563541173935</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B126">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>0.2045337557792664</v>
+        <v>0.1854318231344223</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B127">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>0.2039991170167923</v>
+        <v>0.1349010020494461</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B128">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>0.1834647357463837</v>
+        <v>0.1398401409387589</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B129">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>0.1598774343729019</v>
+        <v>0.1054436415433884</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B130">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>0.1179216504096985</v>
+        <v>0.05749892070889473</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B131">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>0.1068061664700508</v>
+        <v>0.03399690985679626</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B132">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C132">
-        <v>0.05334850773215294</v>
+        <v>0.007041872013360262</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B133">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C133">
-        <v>0.04207879304885864</v>
+        <v>0.0001526367414044216</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B134">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C134">
-        <v>0.03735598549246788</v>
+        <v>0.0001657998800510541</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B135">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C135">
-        <v>0.0153093384578824</v>
+        <v>0.0001696481049293652</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B136">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>0.0002096887183142826</v>
+        <v>0.0001370712416246533</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B137">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>0.0001603154378244653</v>
+        <v>0.0001438933832105249</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B138">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>0.0001612896012375131</v>
+        <v>0.0001438933832105249</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>0.0001136579012381844</v>
+        <v>0.0001454412413295358</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>0.0001187415327876806</v>
+        <v>0.0001495115866418928</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>0.0001255280803889036</v>
+        <v>0.000104740604001563</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>0.0001295984257012606</v>
+        <v>0.002892704913392663</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C143">
-        <v>0.0001295984257012606</v>
+        <v>0.03494731709361076</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>0.0003884734178427607</v>
+        <v>0.08498290926218033</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>0.01764543168246746</v>
+        <v>0.1355010718107224</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B146">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>0.06206691265106201</v>
+        <v>0.1720454692840576</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B147">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C147">
-        <v>0.1202435940504074</v>
+        <v>0.1865001022815704</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B148">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>0.1656021475791931</v>
+        <v>0.1967015266418457</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B149">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C149">
-        <v>0.1913521438837051</v>
+        <v>0.1938913315534592</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B150">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>0.2050656676292419</v>
+        <v>0.184456542134285</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B151">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>0.2068085372447968</v>
+        <v>0.1328065097332001</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B152">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>0.1998198926448822</v>
+        <v>0.1392900049686432</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B153">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>0.1901060938835144</v>
+        <v>0.1151746809482574</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B154">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C154">
-        <v>0.1480977386236191</v>
+        <v>0.05858969688415527</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B155">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C155">
-        <v>0.1263049989938736</v>
+        <v>0.03791891410946846</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B156">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C156">
-        <v>0.1270930022001266</v>
+        <v>0.008197047747671604</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B157">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>0.07223569601774216</v>
+        <v>0.0002010837488342077</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B158">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C158">
-        <v>0.04462055861949921</v>
+        <v>0.0001757865684339777</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B159">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C159">
-        <v>0.01750016771256924</v>
+        <v>0.0001663825387367979</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B160">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>0.0002112511429004371</v>
+        <v>0.0001002094359137118</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B161">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>0.0001621882547624409</v>
+        <v>0.0001214799121953547</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B162">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>0.0001712810189928859</v>
+        <v>0.0001214799121953547</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>0.0001227763423230499</v>
+        <v>0.0001441137283109128</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>0.0001072857194230892</v>
+        <v>0.0001441137283109128</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>0.0001316915440838784</v>
+        <v>0.0001233428629348055</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>0.0001325705088675022</v>
+        <v>0.002905873581767082</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>0.0001325705088675022</v>
+        <v>0.03495097905397415</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B168">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168">
-        <v>0.0004058679623994976</v>
+        <v>0.08626960963010788</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B169">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>0.01933298446238041</v>
+        <v>0.1356595158576965</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C170">
-        <v>0.06986246258020401</v>
+        <v>0.1713812798261642</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_F4.xlsx
+++ b/Transavia/Production/Results/Results_daily_F4.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>-0.0002081972343148664</v>
+        <v>0.001273404806852341</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>0.0007422015769407153</v>
+        <v>0.001202973420731723</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>0.1591723263263702</v>
+        <v>0.000642721657641232</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>0.1455426216125488</v>
+        <v>0.141171857714653</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>0.117200531065464</v>
+        <v>0.166995644569397</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>0.08299291878938675</v>
+        <v>0.1725538820028305</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>0.06281877309083939</v>
+        <v>0.1605762988328934</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>0.04760438576340675</v>
+        <v>0.1449160277843475</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>0.03767320141196251</v>
+        <v>0.1450075060129166</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>0.03039683774113655</v>
+        <v>0.1157742366194725</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>0.007448972202837467</v>
+        <v>0.0604468546807766</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>-3.370179547346197E-05</v>
+        <v>0.04326771199703217</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0002096920652547851</v>
+        <v>0.006251671351492405</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0.0001362976909149438</v>
+        <v>0.0001402655034326017</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>0.0001478334306739271</v>
+        <v>0.0001441137283109128</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0001146647773566656</v>
+        <v>0.000150935840792954</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>0.0001320234005106613</v>
+        <v>0.000150935840792954</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0.0001314760011155158</v>
+        <v>0.0001242218277184293</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>0.0001347947982139885</v>
+        <v>-0.0001983026013476774</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>0.0001181389816338196</v>
+        <v>0.0005521110724657774</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>0.004337718710303307</v>
+        <v>0.001727975439280272</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>0.03174298256635666</v>
+        <v>0.001432635355740786</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>0.07157159596681595</v>
+        <v>0.006066275294870138</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>0.1111851334571838</v>
+        <v>0.03883180767297745</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>0.1386129707098007</v>
+        <v>0.08561821281909943</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>0.1493985205888748</v>
+        <v>0.1222630366683006</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>0.1570251137018204</v>
+        <v>0.1385727822780609</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>0.1522307544946671</v>
+        <v>0.1379228532314301</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>0.1418496668338776</v>
+        <v>0.1669088453054428</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>0.1145694479346275</v>
+        <v>0.1711340695619583</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>0.1288927346467972</v>
+        <v>0.1606526374816895</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>0.0694412961602211</v>
+        <v>0.13529372215271</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>0.04762070253491402</v>
+        <v>0.1312846094369888</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>0.03455963730812073</v>
+        <v>0.09441916644573212</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>0.007693553809076548</v>
+        <v>0.04934259131550789</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <v>0.0001526367414044216</v>
+        <v>0.02998119033873081</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0.0001582278782734647</v>
+        <v>0.004305574111640453</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B39">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.0001574288035044447</v>
+        <v>0.0001143016561400145</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>0.0001495115866418928</v>
+        <v>0.0001587338920217007</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.0001469451817683876</v>
+        <v>0.0001587338920217007</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>0.0001435495069017634</v>
+        <v>0.000174079614225775</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>0.0001423311769030988</v>
+        <v>0.0001065090109477751</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>0.0001459726627217606</v>
+        <v>-0.0002149377978639677</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>0.0001222472928930074</v>
+        <v>1.043829070113134E-05</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>0.002277364488691092</v>
+        <v>0.00149548752233386</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>0.01922797970473766</v>
+        <v>0.001224608160555363</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>0.04682853817939758</v>
+        <v>0.002555239014327526</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>0.07678919285535812</v>
+        <v>0.02219492383301258</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>0.1055890917778015</v>
+        <v>0.05334922671318054</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>0.1296593099832535</v>
+        <v>0.08406530320644379</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>0.1359365731477737</v>
+        <v>0.1006258279085159</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>0.1328981220722198</v>
+        <v>0.1019767299294472</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>0.1156194135546684</v>
+        <v>0.1360635012388229</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>0.0901883989572525</v>
+        <v>0.1374666541814804</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>0.07595250755548477</v>
+        <v>0.1407039016485214</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B57">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C57">
-        <v>0.05169625952839851</v>
+        <v>0.1262952536344528</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B58">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C58">
-        <v>0.04448533058166504</v>
+        <v>0.1005268469452858</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>0.03662845864892006</v>
+        <v>0.06762351095676422</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C60">
-        <v>0.005889534018933773</v>
+        <v>0.04493946954607964</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C61">
-        <v>0.0001508622372057289</v>
+        <v>0.03116784244775772</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0.0001607120939297602</v>
+        <v>0.003211773699149489</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>0.0001523638202343136</v>
+        <v>0.0001256497926078737</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>0.0001118852742365561</v>
+        <v>0.0001485448447056115</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.000119991265819408</v>
+        <v>0.0001146647773566656</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>0.0001360046735499054</v>
+        <v>0.0001165555368061177</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>0.0001396921725245193</v>
+        <v>9.66903826338239E-05</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>0.0001422795176040381</v>
+        <v>-2.933955875050742E-05</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>0.0001202311395900324</v>
+        <v>0.0004617517406586558</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>0.004551544785499573</v>
+        <v>0.001655990839935839</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>0.04027996957302094</v>
+        <v>0.001637254492379725</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>0.09331967681646347</v>
+        <v>0.004415088798850775</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>0.1428869962692261</v>
+        <v>0.03149957582354546</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>0.1723214238882065</v>
+        <v>0.07578642666339874</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C75">
-        <v>0.1913672238588333</v>
+        <v>0.1164338737726212</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C76">
-        <v>0.1911263763904572</v>
+        <v>0.1393987685441971</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>0.1758414208889008</v>
+        <v>0.1246612071990967</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>0.1584685295820236</v>
+        <v>0.1591699570417404</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B79">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>0.1150224432349205</v>
+        <v>0.1593343913555145</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>0.1083272472023964</v>
+        <v>0.147185429930687</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B81">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C81">
-        <v>0.05152963101863861</v>
+        <v>0.1359705328941345</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B82">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C82">
-        <v>0.04010429978370667</v>
+        <v>0.1318216919898987</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B83">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C83">
-        <v>0.01996915228664875</v>
+        <v>0.08334249258041382</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C84">
-        <v>0.004625266883522272</v>
+        <v>0.04796318709850311</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B85">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C85">
-        <v>0.0001634654909139499</v>
+        <v>0.03028073906898499</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B86">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0.0001610093313502148</v>
+        <v>0.003258551470935345</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B87">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>0.0001684591406956315</v>
+        <v>0.0001587338920217007</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>0.0001327059435425326</v>
+        <v>0.000174079614225775</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0.0001399790489813313</v>
+        <v>0.0001372933620586991</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>0.0001401766057824716</v>
+        <v>0.0001372933620586991</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>0.0001350195816485211</v>
+        <v>0.0001144276393461041</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>0.0001507763663539663</v>
+        <v>-0.0002070192276732996</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93">
-        <v>0.0001364048657706007</v>
+        <v>0.0003503907937556505</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>0.003130345838144422</v>
+        <v>0.001529139815829694</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C95">
-        <v>0.0277283638715744</v>
+        <v>0.001521043246611953</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>0.06620679050683975</v>
+        <v>0.004572322592139244</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C97">
-        <v>0.109551377594471</v>
+        <v>0.03518218919634819</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C98">
-        <v>0.1538281291723251</v>
+        <v>0.08090497553348541</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C99">
-        <v>0.1743137389421463</v>
+        <v>0.1186489015817642</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B100">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C100">
-        <v>0.1705354005098343</v>
+        <v>0.1422923058271408</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B101">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>0.1540620177984238</v>
+        <v>0.1334474384784698</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B102">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C102">
-        <v>0.1197396814823151</v>
+        <v>0.1585519164800644</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B103">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C103">
-        <v>0.09314731508493423</v>
+        <v>0.1502149999141693</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B104">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>0.1073134988546371</v>
+        <v>0.1345886439085007</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B105">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C105">
-        <v>0.0643397644162178</v>
+        <v>0.1324171274900436</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B106">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C106">
-        <v>0.04875360056757927</v>
+        <v>0.1176694259047508</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B107">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C107">
-        <v>0.03766327351331711</v>
+        <v>0.06854262948036194</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B108">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C108">
-        <v>0.007918304763734341</v>
+        <v>0.04524980112910271</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B109">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C109">
-        <v>0.0001620696566533297</v>
+        <v>0.0289202407002449</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B110">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0.0001655516098253429</v>
+        <v>0.002430711407214403</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B111">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>0.0001613034692127258</v>
+        <v>0.000101884339528624</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <v>0.0001422795176040381</v>
+        <v>0.0001416103914380074</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.0001406419469276443</v>
+        <v>0.0001507088891230524</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>0.0001435495069017634</v>
+        <v>0.0001587338920217007</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>0.0001476198522141203</v>
+        <v>0.0001472948642913252</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>0.000132129222038202</v>
+        <v>-0.0001742968161124736</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>0.0001345195778412744</v>
+        <v>0.0001736135018290952</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>0.006083627231419086</v>
+        <v>0.001451172400265932</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>0.04282258823513985</v>
+        <v>0.001455541234463453</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C120">
-        <v>0.0937458872795105</v>
+        <v>0.004452278837561607</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>0.1480786353349686</v>
+        <v>0.03509137779474258</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C122">
-        <v>0.1732841730117798</v>
+        <v>0.08383720368146896</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B123">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C123">
-        <v>0.1934500336647034</v>
+        <v>0.1186444908380508</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B124">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C124">
-        <v>0.1986469775438309</v>
+        <v>0.1390421539545059</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B125">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C125">
-        <v>0.1953563541173935</v>
+        <v>0.1332088559865952</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B126">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C126">
-        <v>0.1854318231344223</v>
+        <v>0.1600204110145569</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B127">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C127">
-        <v>0.1349010020494461</v>
+        <v>0.1688878387212753</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B128">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C128">
-        <v>0.1398401409387589</v>
+        <v>0.1622771471738815</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B129">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C129">
-        <v>0.1054436415433884</v>
+        <v>0.1462012678384781</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B130">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C130">
-        <v>0.05749892070889473</v>
+        <v>0.1435637325048447</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B131">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C131">
-        <v>0.03399690985679626</v>
+        <v>0.1085959225893021</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B132">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C132">
-        <v>0.007041872013360262</v>
+        <v>0.05567461997270584</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B133">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C133">
-        <v>0.0001526367414044216</v>
+        <v>0.02893728949129581</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45511</v>
+        <v>45517</v>
       </c>
       <c r="B134">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>0.0001657998800510541</v>
+        <v>0.004283948801457882</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45511</v>
+        <v>45517</v>
       </c>
       <c r="B135">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>0.0001696481049293652</v>
+        <v>0.0001615383662283421</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C136">
-        <v>0.0001370712416246533</v>
+        <v>0.0001882130454760045</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>0.0001438933832105249</v>
+        <v>0.0001120427623391151</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C138">
-        <v>0.0001438933832105249</v>
+        <v>0.0001120427623391151</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C139">
-        <v>0.0001454412413295358</v>
+        <v>0.0001370110257994384</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C140">
-        <v>0.0001495115866418928</v>
+        <v>-0.0002624417247716337</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B141">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C141">
-        <v>0.000104740604001563</v>
+        <v>0.0003366439486853778</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B142">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142">
-        <v>0.002892704913392663</v>
+        <v>0.001452591153793037</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C143">
-        <v>0.03494731709361076</v>
+        <v>0.001451693009585142</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C144">
-        <v>0.08498290926218033</v>
+        <v>0.004552647937089205</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B145">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C145">
-        <v>0.1355010718107224</v>
+        <v>0.03542283177375793</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B146">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C146">
-        <v>0.1720454692840576</v>
+        <v>0.08271370828151703</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B147">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C147">
-        <v>0.1865001022815704</v>
+        <v>0.1177493929862976</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B148">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C148">
-        <v>0.1967015266418457</v>
+        <v>0.1300321072340012</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B149">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C149">
-        <v>0.1938913315534592</v>
+        <v>0.1323753297328949</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B150">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C150">
-        <v>0.184456542134285</v>
+        <v>0.1583451330661774</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B151">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C151">
-        <v>0.1328065097332001</v>
+        <v>0.1685425639152527</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B152">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C152">
-        <v>0.1392900049686432</v>
+        <v>0.162227600812912</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B153">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C153">
-        <v>0.1151746809482574</v>
+        <v>0.1461824327707291</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B154">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C154">
-        <v>0.05858969688415527</v>
+        <v>0.1429097354412079</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B155">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C155">
-        <v>0.03791891410946846</v>
+        <v>0.1086087971925735</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B156">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C156">
-        <v>0.008197047747671604</v>
+        <v>0.05909701436758041</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B157">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C157">
-        <v>0.0002010837488342077</v>
+        <v>0.02881347015500069</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="B158">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>0.0001757865684339777</v>
+        <v>0.003394980449229479</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="B159">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C159">
-        <v>0.0001663825387367979</v>
+        <v>0.0002017114893533289</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C160">
-        <v>0.0001002094359137118</v>
+        <v>0.0001105249393731356</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>0.0001214799121953547</v>
+        <v>0.0001052031293511391</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C162">
-        <v>0.0001214799121953547</v>
+        <v>0.0001416103914380074</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>0.0001441137283109128</v>
+        <v>0.0001364382333122194</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C164">
-        <v>0.0001441137283109128</v>
+        <v>-0.000190639664651826</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B165">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165">
-        <v>0.0001233428629348055</v>
+        <v>0.0001673839869908988</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B166">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166">
-        <v>0.002905873581767082</v>
+        <v>0.001284149358980358</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B167">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C167">
-        <v>0.03495097905397415</v>
+        <v>0.001275686430744827</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B168">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C168">
-        <v>0.08626960963010788</v>
+        <v>0.002495371270924807</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B169">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C169">
-        <v>0.1356595158576965</v>
+        <v>0.02943539060652256</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B170">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C170">
-        <v>0.1713812798261642</v>
+        <v>0.07374256104230881</v>
       </c>
     </row>
   </sheetData>
